--- a/TCC EXCEL FILES/TCC 2007.xlsx
+++ b/TCC EXCEL FILES/TCC 2007.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NodeJS WebApps\JSONFILEUPLOAD\TCC EXCEL FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65798458-C188-48C6-953F-360038FBC036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FA8546-F571-49A4-9B9F-C97AB8D27CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6675" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6676" uniqueCount="1790">
   <si>
     <t>Judges Names</t>
   </si>
@@ -5387,6 +5387,9 @@
   </si>
   <si>
     <t>https://decision.tcc-cci.gc.ca/tcc-cci/decisions/en/item/30680/index.do</t>
+  </si>
+  <si>
+    <t>Issue</t>
   </si>
 </sst>
 </file>
@@ -5763,13 +5766,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M557"/>
+  <dimension ref="A1:N557"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q558" sqref="Q558"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5807,10 +5812,13 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
+        <v>1789</v>
+      </c>
+      <c r="N1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -5847,11 +5855,14 @@
       <c r="L2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -5888,11 +5899,14 @@
       <c r="L3" t="s">
         <v>31</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -5929,11 +5943,14 @@
       <c r="L4" t="s">
         <v>31</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -5970,11 +5987,14 @@
       <c r="L5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -6011,11 +6031,14 @@
       <c r="L6" t="s">
         <v>23</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>52</v>
       </c>
@@ -6052,11 +6075,14 @@
       <c r="L7" t="s">
         <v>31</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -6093,11 +6119,14 @@
       <c r="L8" t="s">
         <v>31</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>63</v>
       </c>
@@ -6134,11 +6163,14 @@
       <c r="L9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -6175,11 +6207,14 @@
       <c r="L10" t="s">
         <v>31</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -6216,11 +6251,14 @@
       <c r="L11" t="s">
         <v>31</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -6257,11 +6295,14 @@
       <c r="L12" t="s">
         <v>31</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>80</v>
       </c>
@@ -6298,11 +6339,14 @@
       <c r="L13" t="s">
         <v>31</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>85</v>
       </c>
@@ -6339,11 +6383,14 @@
       <c r="L14" t="s">
         <v>31</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>91</v>
       </c>
@@ -6380,11 +6427,14 @@
       <c r="L15" t="s">
         <v>31</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -6421,11 +6471,14 @@
       <c r="L16" t="s">
         <v>31</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -6462,11 +6515,14 @@
       <c r="L17" t="s">
         <v>31</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>106</v>
       </c>
@@ -6503,11 +6559,14 @@
       <c r="L18" t="s">
         <v>31</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -6544,11 +6603,14 @@
       <c r="L19" t="s">
         <v>31</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>63</v>
       </c>
@@ -6585,11 +6647,14 @@
       <c r="L20" t="s">
         <v>31</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -6626,11 +6691,14 @@
       <c r="L21" t="s">
         <v>23</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -6667,11 +6735,14 @@
       <c r="L22" t="s">
         <v>31</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -6708,11 +6779,14 @@
       <c r="L23" t="s">
         <v>31</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -6749,11 +6823,14 @@
       <c r="L24" t="s">
         <v>31</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>138</v>
       </c>
@@ -6790,11 +6867,14 @@
       <c r="L25" t="s">
         <v>23</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>91</v>
       </c>
@@ -6831,11 +6911,14 @@
       <c r="L26" t="s">
         <v>31</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>148</v>
       </c>
@@ -6872,11 +6955,14 @@
       <c r="L27" t="s">
         <v>31</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>91</v>
       </c>
@@ -6913,11 +6999,14 @@
       <c r="L28" t="s">
         <v>31</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -6954,11 +7043,14 @@
       <c r="L29" t="s">
         <v>31</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -6995,11 +7087,14 @@
       <c r="L30" t="s">
         <v>31</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -7036,11 +7131,14 @@
       <c r="L31" t="s">
         <v>23</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>169</v>
       </c>
@@ -7077,11 +7175,14 @@
       <c r="L32" t="s">
         <v>31</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>174</v>
       </c>
@@ -7118,11 +7219,14 @@
       <c r="L33" t="s">
         <v>31</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>178</v>
       </c>
@@ -7159,11 +7263,14 @@
       <c r="L34" t="s">
         <v>31</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -7200,11 +7307,14 @@
       <c r="L35" t="s">
         <v>23</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>112</v>
       </c>
@@ -7241,11 +7351,14 @@
       <c r="L36" t="s">
         <v>31</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>192</v>
       </c>
@@ -7282,11 +7395,14 @@
       <c r="L37" t="s">
         <v>31</v>
       </c>
-      <c r="M37" t="s">
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>197</v>
       </c>
@@ -7323,11 +7439,14 @@
       <c r="L38" t="s">
         <v>31</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -7364,11 +7483,14 @@
       <c r="L39" t="s">
         <v>23</v>
       </c>
-      <c r="M39" t="s">
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>205</v>
       </c>
@@ -7405,11 +7527,14 @@
       <c r="L40" t="s">
         <v>31</v>
       </c>
-      <c r="M40" t="s">
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>210</v>
       </c>
@@ -7446,11 +7571,14 @@
       <c r="L41" t="s">
         <v>23</v>
       </c>
-      <c r="M41" t="s">
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>210</v>
       </c>
@@ -7487,11 +7615,14 @@
       <c r="L42" t="s">
         <v>23</v>
       </c>
-      <c r="M42" t="s">
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>220</v>
       </c>
@@ -7528,11 +7659,14 @@
       <c r="L43" t="s">
         <v>31</v>
       </c>
-      <c r="M43" t="s">
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -7569,11 +7703,14 @@
       <c r="L44" t="s">
         <v>31</v>
       </c>
-      <c r="M44" t="s">
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>229</v>
       </c>
@@ -7610,11 +7747,14 @@
       <c r="L45" t="s">
         <v>31</v>
       </c>
-      <c r="M45" t="s">
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -7651,11 +7791,14 @@
       <c r="L46" t="s">
         <v>23</v>
       </c>
-      <c r="M46" t="s">
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>169</v>
       </c>
@@ -7692,11 +7835,14 @@
       <c r="L47" t="s">
         <v>31</v>
       </c>
-      <c r="M47" t="s">
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>241</v>
       </c>
@@ -7733,11 +7879,14 @@
       <c r="L48" t="s">
         <v>31</v>
       </c>
-      <c r="M48" t="s">
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>241</v>
       </c>
@@ -7774,11 +7923,14 @@
       <c r="L49" t="s">
         <v>31</v>
       </c>
-      <c r="M49" t="s">
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>33</v>
       </c>
@@ -7815,11 +7967,14 @@
       <c r="L50" t="s">
         <v>31</v>
       </c>
-      <c r="M50" t="s">
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>253</v>
       </c>
@@ -7856,11 +8011,14 @@
       <c r="L51" t="s">
         <v>31</v>
       </c>
-      <c r="M51" t="s">
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>258</v>
       </c>
@@ -7897,11 +8055,14 @@
       <c r="L52" t="s">
         <v>31</v>
       </c>
-      <c r="M52" t="s">
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>210</v>
       </c>
@@ -7938,11 +8099,14 @@
       <c r="L53" t="s">
         <v>23</v>
       </c>
-      <c r="M53" t="s">
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>57</v>
       </c>
@@ -7979,11 +8143,14 @@
       <c r="L54" t="s">
         <v>31</v>
       </c>
-      <c r="M54" t="s">
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="55" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>205</v>
       </c>
@@ -8020,11 +8187,14 @@
       <c r="L55" t="s">
         <v>31</v>
       </c>
-      <c r="M55" t="s">
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>63</v>
       </c>
@@ -8061,11 +8231,14 @@
       <c r="L56" t="s">
         <v>31</v>
       </c>
-      <c r="M56" t="s">
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>127</v>
       </c>
@@ -8102,11 +8275,14 @@
       <c r="L57" t="s">
         <v>31</v>
       </c>
-      <c r="M57" t="s">
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -8143,11 +8319,14 @@
       <c r="L58" t="s">
         <v>31</v>
       </c>
-      <c r="M58" t="s">
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="59" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>33</v>
       </c>
@@ -8184,11 +8363,14 @@
       <c r="L59" t="s">
         <v>31</v>
       </c>
-      <c r="M59" t="s">
+      <c r="M59">
+        <v>0</v>
+      </c>
+      <c r="N59" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -8225,11 +8407,14 @@
       <c r="L60" t="s">
         <v>23</v>
       </c>
-      <c r="M60" t="s">
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>91</v>
       </c>
@@ -8266,11 +8451,14 @@
       <c r="L61" t="s">
         <v>31</v>
       </c>
-      <c r="M61" t="s">
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="62" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>80</v>
       </c>
@@ -8307,11 +8495,14 @@
       <c r="L62" t="s">
         <v>31</v>
       </c>
-      <c r="M62" t="s">
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>127</v>
       </c>
@@ -8348,11 +8539,14 @@
       <c r="L63" t="s">
         <v>31</v>
       </c>
-      <c r="M63" t="s">
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>220</v>
       </c>
@@ -8389,11 +8583,14 @@
       <c r="L64" t="s">
         <v>31</v>
       </c>
-      <c r="M64" t="s">
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -8430,11 +8627,14 @@
       <c r="L65" t="s">
         <v>31</v>
       </c>
-      <c r="M65" t="s">
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>258</v>
       </c>
@@ -8471,11 +8671,14 @@
       <c r="L66" t="s">
         <v>31</v>
       </c>
-      <c r="M66" t="s">
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>307</v>
       </c>
@@ -8512,11 +8715,14 @@
       <c r="L67" t="s">
         <v>31</v>
       </c>
-      <c r="M67" t="s">
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>80</v>
       </c>
@@ -8553,11 +8759,14 @@
       <c r="L68" t="s">
         <v>314</v>
       </c>
-      <c r="M68" t="s">
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>316</v>
       </c>
@@ -8594,11 +8803,14 @@
       <c r="L69" t="s">
         <v>23</v>
       </c>
-      <c r="M69" t="s">
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>321</v>
       </c>
@@ -8635,11 +8847,14 @@
       <c r="L70" t="s">
         <v>31</v>
       </c>
-      <c r="M70" t="s">
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>307</v>
       </c>
@@ -8676,11 +8891,14 @@
       <c r="L71" t="s">
         <v>31</v>
       </c>
-      <c r="M71" t="s">
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -8717,11 +8935,14 @@
       <c r="L72" t="s">
         <v>23</v>
       </c>
-      <c r="M72" t="s">
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>307</v>
       </c>
@@ -8758,11 +8979,14 @@
       <c r="L73" t="s">
         <v>31</v>
       </c>
-      <c r="M73" t="s">
+      <c r="M73">
+        <v>1</v>
+      </c>
+      <c r="N73" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>316</v>
       </c>
@@ -8799,11 +9023,14 @@
       <c r="L74" t="s">
         <v>23</v>
       </c>
-      <c r="M74" t="s">
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>338</v>
       </c>
@@ -8840,11 +9067,14 @@
       <c r="L75" t="s">
         <v>31</v>
       </c>
-      <c r="M75" t="s">
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>241</v>
       </c>
@@ -8881,11 +9111,14 @@
       <c r="L76" t="s">
         <v>31</v>
       </c>
-      <c r="M76" t="s">
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -8922,11 +9155,14 @@
       <c r="L77" t="s">
         <v>23</v>
       </c>
-      <c r="M77" t="s">
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>112</v>
       </c>
@@ -8963,11 +9199,14 @@
       <c r="L78" t="s">
         <v>31</v>
       </c>
-      <c r="M78" t="s">
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>80</v>
       </c>
@@ -9004,11 +9243,14 @@
       <c r="L79" t="s">
         <v>31</v>
       </c>
-      <c r="M79" t="s">
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -9045,11 +9287,14 @@
       <c r="L80" t="s">
         <v>31</v>
       </c>
-      <c r="M80" t="s">
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>25</v>
       </c>
@@ -9086,11 +9331,14 @@
       <c r="L81" t="s">
         <v>31</v>
       </c>
-      <c r="M81" t="s">
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>241</v>
       </c>
@@ -9127,11 +9375,14 @@
       <c r="L82" t="s">
         <v>31</v>
       </c>
-      <c r="M82" t="s">
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>210</v>
       </c>
@@ -9168,11 +9419,14 @@
       <c r="L83" t="s">
         <v>23</v>
       </c>
-      <c r="M83" t="s">
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>25</v>
       </c>
@@ -9209,11 +9463,14 @@
       <c r="L84" t="s">
         <v>31</v>
       </c>
-      <c r="M84" t="s">
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>85</v>
       </c>
@@ -9250,11 +9507,14 @@
       <c r="L85" t="s">
         <v>31</v>
       </c>
-      <c r="M85" t="s">
+      <c r="M85">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>375</v>
       </c>
@@ -9291,11 +9551,14 @@
       <c r="L86" t="s">
         <v>31</v>
       </c>
-      <c r="M86" t="s">
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>63</v>
       </c>
@@ -9332,11 +9595,14 @@
       <c r="L87" t="s">
         <v>31</v>
       </c>
-      <c r="M87" t="s">
+      <c r="M87">
+        <v>0</v>
+      </c>
+      <c r="N87" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>25</v>
       </c>
@@ -9373,11 +9639,14 @@
       <c r="L88" t="s">
         <v>31</v>
       </c>
-      <c r="M88" t="s">
+      <c r="M88">
+        <v>1</v>
+      </c>
+      <c r="N88" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>386</v>
       </c>
@@ -9414,11 +9683,14 @@
       <c r="L89" t="s">
         <v>31</v>
       </c>
-      <c r="M89" t="s">
+      <c r="M89">
+        <v>1</v>
+      </c>
+      <c r="N89" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -9455,11 +9727,14 @@
       <c r="L90" t="s">
         <v>31</v>
       </c>
-      <c r="M90" t="s">
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>258</v>
       </c>
@@ -9496,11 +9771,14 @@
       <c r="L91" t="s">
         <v>31</v>
       </c>
-      <c r="M91" t="s">
+      <c r="M91">
+        <v>0</v>
+      </c>
+      <c r="N91" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>63</v>
       </c>
@@ -9537,11 +9815,14 @@
       <c r="L92" t="s">
         <v>31</v>
       </c>
-      <c r="M92" t="s">
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>375</v>
       </c>
@@ -9578,11 +9859,14 @@
       <c r="L93" t="s">
         <v>31</v>
       </c>
-      <c r="M93" t="s">
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>402</v>
       </c>
@@ -9619,11 +9903,14 @@
       <c r="L94" t="s">
         <v>31</v>
       </c>
-      <c r="M94" t="s">
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>33</v>
       </c>
@@ -9660,11 +9947,14 @@
       <c r="L95" t="s">
         <v>31</v>
       </c>
-      <c r="M95" t="s">
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>409</v>
       </c>
@@ -9701,11 +9991,14 @@
       <c r="L96" t="s">
         <v>23</v>
       </c>
-      <c r="M96" t="s">
+      <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>210</v>
       </c>
@@ -9742,11 +10035,14 @@
       <c r="L97" t="s">
         <v>23</v>
       </c>
-      <c r="M97" t="s">
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>416</v>
       </c>
@@ -9783,11 +10079,14 @@
       <c r="L98" t="s">
         <v>31</v>
       </c>
-      <c r="M98" t="s">
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>316</v>
       </c>
@@ -9824,11 +10123,14 @@
       <c r="L99" t="s">
         <v>23</v>
       </c>
-      <c r="M99" t="s">
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="100" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -9865,11 +10167,14 @@
       <c r="L100" t="s">
         <v>23</v>
       </c>
-      <c r="M100" t="s">
+      <c r="M100">
+        <v>0</v>
+      </c>
+      <c r="N100" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>428</v>
       </c>
@@ -9906,11 +10211,14 @@
       <c r="L101" t="s">
         <v>31</v>
       </c>
-      <c r="M101" t="s">
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>63</v>
       </c>
@@ -9947,11 +10255,14 @@
       <c r="L102" t="s">
         <v>31</v>
       </c>
-      <c r="M102" t="s">
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>197</v>
       </c>
@@ -9988,11 +10299,14 @@
       <c r="L103" t="s">
         <v>31</v>
       </c>
-      <c r="M103" t="s">
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>33</v>
       </c>
@@ -10029,11 +10343,14 @@
       <c r="L104" t="s">
         <v>31</v>
       </c>
-      <c r="M104" t="s">
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>33</v>
       </c>
@@ -10070,11 +10387,14 @@
       <c r="L105" t="s">
         <v>31</v>
       </c>
-      <c r="M105" t="s">
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="106" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>127</v>
       </c>
@@ -10111,11 +10431,14 @@
       <c r="L106" t="s">
         <v>31</v>
       </c>
-      <c r="M106" t="s">
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -10152,11 +10475,14 @@
       <c r="L107" t="s">
         <v>31</v>
       </c>
-      <c r="M107" t="s">
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -10193,11 +10519,14 @@
       <c r="L108" t="s">
         <v>23</v>
       </c>
-      <c r="M108" t="s">
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="109" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>197</v>
       </c>
@@ -10234,11 +10563,14 @@
       <c r="L109" t="s">
         <v>31</v>
       </c>
-      <c r="M109" t="s">
+      <c r="M109">
+        <v>1</v>
+      </c>
+      <c r="N109" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="110" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>33</v>
       </c>
@@ -10275,11 +10607,14 @@
       <c r="L110" t="s">
         <v>31</v>
       </c>
-      <c r="M110" t="s">
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>463</v>
       </c>
@@ -10316,11 +10651,14 @@
       <c r="L111" t="s">
         <v>31</v>
       </c>
-      <c r="M111" t="s">
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>467</v>
       </c>
@@ -10357,11 +10695,14 @@
       <c r="L112" t="s">
         <v>31</v>
       </c>
-      <c r="M112" t="s">
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>316</v>
       </c>
@@ -10398,11 +10739,14 @@
       <c r="L113" t="s">
         <v>23</v>
       </c>
-      <c r="M113" t="s">
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>375</v>
       </c>
@@ -10439,11 +10783,14 @@
       <c r="L114" t="s">
         <v>31</v>
       </c>
-      <c r="M114" t="s">
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="115" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>169</v>
       </c>
@@ -10480,11 +10827,14 @@
       <c r="L115" t="s">
         <v>31</v>
       </c>
-      <c r="M115" t="s">
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>80</v>
       </c>
@@ -10521,11 +10871,14 @@
       <c r="L116" t="s">
         <v>31</v>
       </c>
-      <c r="M116" t="s">
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>241</v>
       </c>
@@ -10562,11 +10915,14 @@
       <c r="L117" t="s">
         <v>31</v>
       </c>
-      <c r="M117" t="s">
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>91</v>
       </c>
@@ -10603,11 +10959,14 @@
       <c r="L118" t="s">
         <v>31</v>
       </c>
-      <c r="M118" t="s">
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>197</v>
       </c>
@@ -10644,11 +11003,14 @@
       <c r="L119" t="s">
         <v>31</v>
       </c>
-      <c r="M119" t="s">
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>197</v>
       </c>
@@ -10685,11 +11047,14 @@
       <c r="L120" t="s">
         <v>31</v>
       </c>
-      <c r="M120" t="s">
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>220</v>
       </c>
@@ -10726,11 +11091,14 @@
       <c r="L121" t="s">
         <v>31</v>
       </c>
-      <c r="M121" t="s">
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>467</v>
       </c>
@@ -10767,11 +11135,14 @@
       <c r="L122" t="s">
         <v>31</v>
       </c>
-      <c r="M122" t="s">
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="123" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>503</v>
       </c>
@@ -10808,11 +11179,14 @@
       <c r="L123" t="s">
         <v>31</v>
       </c>
-      <c r="M123" t="s">
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>197</v>
       </c>
@@ -10849,11 +11223,14 @@
       <c r="L124" t="s">
         <v>31</v>
       </c>
-      <c r="M124" t="s">
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>512</v>
       </c>
@@ -10890,11 +11267,14 @@
       <c r="L125" t="s">
         <v>31</v>
       </c>
-      <c r="M125" t="s">
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>516</v>
       </c>
@@ -10931,11 +11311,14 @@
       <c r="L126" t="s">
         <v>31</v>
       </c>
-      <c r="M126" t="s">
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>63</v>
       </c>
@@ -10972,11 +11355,14 @@
       <c r="L127" t="s">
         <v>31</v>
       </c>
-      <c r="M127" t="s">
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>524</v>
       </c>
@@ -11013,11 +11399,14 @@
       <c r="L128" t="s">
         <v>23</v>
       </c>
-      <c r="M128" t="s">
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -11051,11 +11440,14 @@
       <c r="L129" t="s">
         <v>31</v>
       </c>
-      <c r="M129" t="s">
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -11092,11 +11484,14 @@
       <c r="L130" t="s">
         <v>31</v>
       </c>
-      <c r="M130" t="s">
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>197</v>
       </c>
@@ -11133,11 +11528,14 @@
       <c r="L131" t="s">
         <v>31</v>
       </c>
-      <c r="M131" t="s">
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>127</v>
       </c>
@@ -11174,11 +11572,14 @@
       <c r="L132" t="s">
         <v>31</v>
       </c>
-      <c r="M132" t="s">
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>197</v>
       </c>
@@ -11215,11 +11616,14 @@
       <c r="L133" t="s">
         <v>31</v>
       </c>
-      <c r="M133" t="s">
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>544</v>
       </c>
@@ -11256,11 +11660,14 @@
       <c r="L134" t="s">
         <v>31</v>
       </c>
-      <c r="M134" t="s">
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>91</v>
       </c>
@@ -11297,11 +11704,14 @@
       <c r="L135" t="s">
         <v>31</v>
       </c>
-      <c r="M135" t="s">
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>169</v>
       </c>
@@ -11338,11 +11748,14 @@
       <c r="L136" t="s">
         <v>31</v>
       </c>
-      <c r="M136" t="s">
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>555</v>
       </c>
@@ -11379,11 +11792,14 @@
       <c r="L137" t="s">
         <v>23</v>
       </c>
-      <c r="M137" t="s">
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>467</v>
       </c>
@@ -11420,11 +11836,14 @@
       <c r="L138" t="s">
         <v>31</v>
       </c>
-      <c r="M138" t="s">
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>467</v>
       </c>
@@ -11461,11 +11880,14 @@
       <c r="L139" t="s">
         <v>31</v>
       </c>
-      <c r="M139" t="s">
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>220</v>
       </c>
@@ -11478,11 +11900,14 @@
       <c r="H140">
         <v>0</v>
       </c>
-      <c r="M140" t="s">
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>52</v>
       </c>
@@ -11519,11 +11944,14 @@
       <c r="L141" t="s">
         <v>31</v>
       </c>
-      <c r="M141" t="s">
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>220</v>
       </c>
@@ -11560,11 +11988,14 @@
       <c r="L142" t="s">
         <v>31</v>
       </c>
-      <c r="M142" t="s">
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>85</v>
       </c>
@@ -11601,11 +12032,14 @@
       <c r="L143" t="s">
         <v>31</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>169</v>
       </c>
@@ -11642,11 +12076,14 @@
       <c r="L144" t="s">
         <v>23</v>
       </c>
-      <c r="M144" t="s">
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="145" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>258</v>
       </c>
@@ -11683,11 +12120,14 @@
       <c r="L145" t="s">
         <v>31</v>
       </c>
-      <c r="M145" t="s">
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="146" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>220</v>
       </c>
@@ -11724,11 +12164,14 @@
       <c r="L146" t="s">
         <v>31</v>
       </c>
-      <c r="M146" t="s">
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="147" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>585</v>
       </c>
@@ -11765,11 +12208,14 @@
       <c r="L147" t="s">
         <v>31</v>
       </c>
-      <c r="M147" t="s">
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="148" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>416</v>
       </c>
@@ -11806,11 +12252,14 @@
       <c r="L148" t="s">
         <v>31</v>
       </c>
-      <c r="M148" t="s">
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="149" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>307</v>
       </c>
@@ -11847,11 +12296,14 @@
       <c r="L149" t="s">
         <v>31</v>
       </c>
-      <c r="M149" t="s">
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149" t="s">
         <v>596</v>
       </c>
     </row>
-    <row r="150" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -11888,11 +12340,14 @@
       <c r="L150" t="s">
         <v>31</v>
       </c>
-      <c r="M150" t="s">
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="151" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>85</v>
       </c>
@@ -11929,11 +12384,14 @@
       <c r="L151" t="s">
         <v>31</v>
       </c>
-      <c r="M151" t="s">
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="152" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>178</v>
       </c>
@@ -11970,11 +12428,14 @@
       <c r="L152" t="s">
         <v>31</v>
       </c>
-      <c r="M152" t="s">
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="153" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>197</v>
       </c>
@@ -12011,11 +12472,14 @@
       <c r="L153" t="s">
         <v>31</v>
       </c>
-      <c r="M153" t="s">
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="154" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>609</v>
       </c>
@@ -12052,11 +12516,14 @@
       <c r="L154" t="s">
         <v>31</v>
       </c>
-      <c r="M154" t="s">
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="155" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>613</v>
       </c>
@@ -12093,11 +12560,14 @@
       <c r="L155" t="s">
         <v>31</v>
       </c>
-      <c r="M155" t="s">
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155" t="s">
         <v>616</v>
       </c>
     </row>
-    <row r="156" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>13</v>
       </c>
@@ -12134,11 +12604,14 @@
       <c r="L156" t="s">
         <v>23</v>
       </c>
-      <c r="M156" t="s">
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="157" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>178</v>
       </c>
@@ -12175,11 +12648,14 @@
       <c r="L157" t="s">
         <v>31</v>
       </c>
-      <c r="M157" t="s">
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157" t="s">
         <v>622</v>
       </c>
     </row>
-    <row r="158" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>220</v>
       </c>
@@ -12216,11 +12692,14 @@
       <c r="L158" t="s">
         <v>31</v>
       </c>
-      <c r="M158" t="s">
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="159" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>316</v>
       </c>
@@ -12257,11 +12736,14 @@
       <c r="L159" t="s">
         <v>23</v>
       </c>
-      <c r="M159" t="s">
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>632</v>
       </c>
@@ -12298,11 +12780,14 @@
       <c r="L160" t="s">
         <v>31</v>
       </c>
-      <c r="M160" t="s">
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>205</v>
       </c>
@@ -12339,11 +12824,14 @@
       <c r="L161" t="s">
         <v>31</v>
       </c>
-      <c r="M161" t="s">
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -12380,11 +12868,14 @@
       <c r="L162" t="s">
         <v>23</v>
       </c>
-      <c r="M162" t="s">
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>307</v>
       </c>
@@ -12421,11 +12912,14 @@
       <c r="L163" t="s">
         <v>31</v>
       </c>
-      <c r="M163" t="s">
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>307</v>
       </c>
@@ -12462,11 +12956,14 @@
       <c r="L164" t="s">
         <v>31</v>
       </c>
-      <c r="M164" t="s">
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>33</v>
       </c>
@@ -12503,11 +13000,14 @@
       <c r="L165" t="s">
         <v>31</v>
       </c>
-      <c r="M165" t="s">
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>44</v>
       </c>
@@ -12544,11 +13044,14 @@
       <c r="L166" t="s">
         <v>23</v>
       </c>
-      <c r="M166" t="s">
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>241</v>
       </c>
@@ -12585,11 +13088,14 @@
       <c r="L167" t="s">
         <v>31</v>
       </c>
-      <c r="M167" t="s">
+      <c r="M167">
+        <v>1</v>
+      </c>
+      <c r="N167" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>80</v>
       </c>
@@ -12626,11 +13132,14 @@
       <c r="L168" t="s">
         <v>31</v>
       </c>
-      <c r="M168" t="s">
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>85</v>
       </c>
@@ -12667,11 +13176,14 @@
       <c r="L169" t="s">
         <v>31</v>
       </c>
-      <c r="M169" t="s">
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>52</v>
       </c>
@@ -12708,11 +13220,14 @@
       <c r="L170" t="s">
         <v>31</v>
       </c>
-      <c r="M170" t="s">
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>416</v>
       </c>
@@ -12749,11 +13264,14 @@
       <c r="L171" t="s">
         <v>31</v>
       </c>
-      <c r="M171" t="s">
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>127</v>
       </c>
@@ -12790,11 +13308,14 @@
       <c r="L172" t="s">
         <v>31</v>
       </c>
-      <c r="M172" t="s">
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="173" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>197</v>
       </c>
@@ -12831,11 +13352,14 @@
       <c r="L173" t="s">
         <v>31</v>
       </c>
-      <c r="M173" t="s">
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>524</v>
       </c>
@@ -12872,11 +13396,14 @@
       <c r="L174" t="s">
         <v>23</v>
       </c>
-      <c r="M174" t="s">
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174" t="s">
         <v>680</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>44</v>
       </c>
@@ -12913,11 +13440,14 @@
       <c r="L175" t="s">
         <v>23</v>
       </c>
-      <c r="M175" t="s">
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>210</v>
       </c>
@@ -12954,11 +13484,14 @@
       <c r="L176" t="s">
         <v>23</v>
       </c>
-      <c r="M176" t="s">
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>132</v>
       </c>
@@ -12995,11 +13528,14 @@
       <c r="L177" t="s">
         <v>31</v>
       </c>
-      <c r="M177" t="s">
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>632</v>
       </c>
@@ -13036,11 +13572,14 @@
       <c r="L178" t="s">
         <v>31</v>
       </c>
-      <c r="M178" t="s">
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>33</v>
       </c>
@@ -13077,11 +13616,14 @@
       <c r="L179" t="s">
         <v>31</v>
       </c>
-      <c r="M179" t="s">
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>241</v>
       </c>
@@ -13118,11 +13660,14 @@
       <c r="L180" t="s">
         <v>31</v>
       </c>
-      <c r="M180" t="s">
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="181" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>127</v>
       </c>
@@ -13159,11 +13704,14 @@
       <c r="L181" t="s">
         <v>31</v>
       </c>
-      <c r="M181" t="s">
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181" t="s">
         <v>700</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -13200,11 +13748,14 @@
       <c r="L182" t="s">
         <v>31</v>
       </c>
-      <c r="M182" t="s">
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182" t="s">
         <v>702</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>91</v>
       </c>
@@ -13241,11 +13792,14 @@
       <c r="L183" t="s">
         <v>31</v>
       </c>
-      <c r="M183" t="s">
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>169</v>
       </c>
@@ -13282,11 +13836,14 @@
       <c r="L184" t="s">
         <v>23</v>
       </c>
-      <c r="M184" t="s">
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -13323,11 +13880,14 @@
       <c r="L185" t="s">
         <v>31</v>
       </c>
-      <c r="M185" t="s">
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>197</v>
       </c>
@@ -13364,11 +13924,14 @@
       <c r="L186" t="s">
         <v>31</v>
       </c>
-      <c r="M186" t="s">
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186" t="s">
         <v>714</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>503</v>
       </c>
@@ -13405,11 +13968,14 @@
       <c r="L187" t="s">
         <v>31</v>
       </c>
-      <c r="M187" t="s">
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>91</v>
       </c>
@@ -13446,11 +14012,14 @@
       <c r="L188" t="s">
         <v>31</v>
       </c>
-      <c r="M188" t="s">
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>178</v>
       </c>
@@ -13487,11 +14056,14 @@
       <c r="L189" t="s">
         <v>31</v>
       </c>
-      <c r="M189" t="s">
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>632</v>
       </c>
@@ -13528,11 +14100,14 @@
       <c r="L190" t="s">
         <v>31</v>
       </c>
-      <c r="M190" t="s">
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>178</v>
       </c>
@@ -13569,11 +14144,14 @@
       <c r="L191" t="s">
         <v>31</v>
       </c>
-      <c r="M191" t="s">
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>307</v>
       </c>
@@ -13610,11 +14188,14 @@
       <c r="L192" t="s">
         <v>31</v>
       </c>
-      <c r="M192" t="s">
+      <c r="M192">
+        <v>0</v>
+      </c>
+      <c r="N192" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>307</v>
       </c>
@@ -13651,11 +14232,14 @@
       <c r="L193" t="s">
         <v>31</v>
       </c>
-      <c r="M193" t="s">
+      <c r="M193">
+        <v>0</v>
+      </c>
+      <c r="N193" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>169</v>
       </c>
@@ -13692,11 +14276,14 @@
       <c r="L194" t="s">
         <v>23</v>
       </c>
-      <c r="M194" t="s">
+      <c r="M194">
+        <v>0</v>
+      </c>
+      <c r="N194" t="s">
         <v>738</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -13733,11 +14320,14 @@
       <c r="L195" t="s">
         <v>31</v>
       </c>
-      <c r="M195" t="s">
+      <c r="M195">
+        <v>0</v>
+      </c>
+      <c r="N195" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>112</v>
       </c>
@@ -13774,11 +14364,14 @@
       <c r="L196" t="s">
         <v>31</v>
       </c>
-      <c r="M196" t="s">
+      <c r="M196">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
         <v>744</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>197</v>
       </c>
@@ -13815,11 +14408,14 @@
       <c r="L197" t="s">
         <v>31</v>
       </c>
-      <c r="M197" t="s">
+      <c r="M197">
+        <v>0</v>
+      </c>
+      <c r="N197" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>748</v>
       </c>
@@ -13856,11 +14452,14 @@
       <c r="L198" t="s">
         <v>23</v>
       </c>
-      <c r="M198" t="s">
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -13897,11 +14496,14 @@
       <c r="L199" t="s">
         <v>31</v>
       </c>
-      <c r="M199" t="s">
+      <c r="M199">
+        <v>1</v>
+      </c>
+      <c r="N199" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="200" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>85</v>
       </c>
@@ -13938,11 +14540,14 @@
       <c r="L200" t="s">
         <v>31</v>
       </c>
-      <c r="M200" t="s">
+      <c r="M200">
+        <v>0</v>
+      </c>
+      <c r="N200" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>241</v>
       </c>
@@ -13979,11 +14584,14 @@
       <c r="L201" t="s">
         <v>31</v>
       </c>
-      <c r="M201" t="s">
+      <c r="M201">
+        <v>1</v>
+      </c>
+      <c r="N201" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>25</v>
       </c>
@@ -14020,11 +14628,14 @@
       <c r="L202" t="s">
         <v>31</v>
       </c>
-      <c r="M202" t="s">
+      <c r="M202">
+        <v>0</v>
+      </c>
+      <c r="N202" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="203" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>169</v>
       </c>
@@ -14061,11 +14672,14 @@
       <c r="L203" t="s">
         <v>23</v>
       </c>
-      <c r="M203" t="s">
+      <c r="M203">
+        <v>0</v>
+      </c>
+      <c r="N203" t="s">
         <v>766</v>
       </c>
     </row>
-    <row r="204" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>316</v>
       </c>
@@ -14102,11 +14716,14 @@
       <c r="L204" t="s">
         <v>23</v>
       </c>
-      <c r="M204" t="s">
+      <c r="M204">
+        <v>0</v>
+      </c>
+      <c r="N204" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="205" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>503</v>
       </c>
@@ -14143,11 +14760,14 @@
       <c r="L205" t="s">
         <v>31</v>
       </c>
-      <c r="M205" t="s">
+      <c r="M205">
+        <v>0</v>
+      </c>
+      <c r="N205" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="206" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>316</v>
       </c>
@@ -14184,11 +14804,14 @@
       <c r="L206" t="s">
         <v>23</v>
       </c>
-      <c r="M206" t="s">
+      <c r="M206">
+        <v>0</v>
+      </c>
+      <c r="N206" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="207" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>258</v>
       </c>
@@ -14225,11 +14848,14 @@
       <c r="L207" t="s">
         <v>31</v>
       </c>
-      <c r="M207" t="s">
+      <c r="M207">
+        <v>0</v>
+      </c>
+      <c r="N207" t="s">
         <v>778</v>
       </c>
     </row>
-    <row r="208" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>127</v>
       </c>
@@ -14266,11 +14892,14 @@
       <c r="L208" t="s">
         <v>31</v>
       </c>
-      <c r="M208" t="s">
+      <c r="M208">
+        <v>0</v>
+      </c>
+      <c r="N208" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>63</v>
       </c>
@@ -14307,11 +14936,14 @@
       <c r="L209" t="s">
         <v>31</v>
       </c>
-      <c r="M209" t="s">
+      <c r="M209">
+        <v>0</v>
+      </c>
+      <c r="N209" t="s">
         <v>784</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>91</v>
       </c>
@@ -14348,11 +14980,14 @@
       <c r="L210" t="s">
         <v>31</v>
       </c>
-      <c r="M210" t="s">
+      <c r="M210">
+        <v>0</v>
+      </c>
+      <c r="N210" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>788</v>
       </c>
@@ -14389,11 +15024,14 @@
       <c r="L211" t="s">
         <v>31</v>
       </c>
-      <c r="M211" t="s">
+      <c r="M211">
+        <v>0</v>
+      </c>
+      <c r="N211" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>792</v>
       </c>
@@ -14430,11 +15068,14 @@
       <c r="L212" t="s">
         <v>31</v>
       </c>
-      <c r="M212" t="s">
+      <c r="M212">
+        <v>0</v>
+      </c>
+      <c r="N212" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>127</v>
       </c>
@@ -14471,11 +15112,14 @@
       <c r="L213" t="s">
         <v>31</v>
       </c>
-      <c r="M213" t="s">
+      <c r="M213">
+        <v>0</v>
+      </c>
+      <c r="N213" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>91</v>
       </c>
@@ -14512,11 +15156,14 @@
       <c r="L214" t="s">
         <v>31</v>
       </c>
-      <c r="M214" t="s">
+      <c r="M214">
+        <v>0</v>
+      </c>
+      <c r="N214" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>44</v>
       </c>
@@ -14553,11 +15200,14 @@
       <c r="L215" t="s">
         <v>23</v>
       </c>
-      <c r="M215" t="s">
+      <c r="M215">
+        <v>0</v>
+      </c>
+      <c r="N215" t="s">
         <v>802</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>210</v>
       </c>
@@ -14594,11 +15244,14 @@
       <c r="L216" t="s">
         <v>23</v>
       </c>
-      <c r="M216" t="s">
+      <c r="M216">
+        <v>0</v>
+      </c>
+      <c r="N216" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>25</v>
       </c>
@@ -14635,11 +15288,14 @@
       <c r="L217" t="s">
         <v>31</v>
       </c>
-      <c r="M217" t="s">
+      <c r="M217">
+        <v>0</v>
+      </c>
+      <c r="N217" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>138</v>
       </c>
@@ -14676,11 +15332,14 @@
       <c r="L218" t="s">
         <v>23</v>
       </c>
-      <c r="M218" t="s">
+      <c r="M218">
+        <v>0</v>
+      </c>
+      <c r="N218" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="219" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>25</v>
       </c>
@@ -14717,11 +15376,14 @@
       <c r="L219" t="s">
         <v>31</v>
       </c>
-      <c r="M219" t="s">
+      <c r="M219">
+        <v>0</v>
+      </c>
+      <c r="N219" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>632</v>
       </c>
@@ -14758,11 +15420,14 @@
       <c r="L220" t="s">
         <v>31</v>
       </c>
-      <c r="M220" t="s">
+      <c r="M220">
+        <v>1</v>
+      </c>
+      <c r="N220" t="s">
         <v>816</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>197</v>
       </c>
@@ -14799,11 +15464,14 @@
       <c r="L221" t="s">
         <v>31</v>
       </c>
-      <c r="M221" t="s">
+      <c r="M221">
+        <v>0</v>
+      </c>
+      <c r="N221" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>820</v>
       </c>
@@ -14840,11 +15508,14 @@
       <c r="L222" t="s">
         <v>31</v>
       </c>
-      <c r="M222" t="s">
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222" t="s">
         <v>824</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>197</v>
       </c>
@@ -14881,11 +15552,14 @@
       <c r="L223" t="s">
         <v>31</v>
       </c>
-      <c r="M223" t="s">
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>197</v>
       </c>
@@ -14922,11 +15596,14 @@
       <c r="L224" t="s">
         <v>31</v>
       </c>
-      <c r="M224" t="s">
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224" t="s">
         <v>830</v>
       </c>
     </row>
-    <row r="225" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>205</v>
       </c>
@@ -14963,11 +15640,14 @@
       <c r="L225" t="s">
         <v>31</v>
       </c>
-      <c r="M225" t="s">
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="226" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>63</v>
       </c>
@@ -15004,11 +15684,14 @@
       <c r="L226" t="s">
         <v>31</v>
       </c>
-      <c r="M226" t="s">
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="227" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>197</v>
       </c>
@@ -15045,11 +15728,14 @@
       <c r="L227" t="s">
         <v>31</v>
       </c>
-      <c r="M227" t="s">
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="228" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>85</v>
       </c>
@@ -15086,11 +15772,14 @@
       <c r="L228" t="s">
         <v>31</v>
       </c>
-      <c r="M228" t="s">
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="229" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>85</v>
       </c>
@@ -15127,11 +15816,14 @@
       <c r="L229" t="s">
         <v>31</v>
       </c>
-      <c r="M229" t="s">
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229" t="s">
         <v>844</v>
       </c>
     </row>
-    <row r="230" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>25</v>
       </c>
@@ -15168,11 +15860,14 @@
       <c r="L230" t="s">
         <v>31</v>
       </c>
-      <c r="M230" t="s">
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="231" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>33</v>
       </c>
@@ -15209,11 +15904,14 @@
       <c r="L231" t="s">
         <v>31</v>
       </c>
-      <c r="M231" t="s">
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="232" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>91</v>
       </c>
@@ -15250,11 +15948,14 @@
       <c r="L232" t="s">
         <v>31</v>
       </c>
-      <c r="M232" t="s">
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="233" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>33</v>
       </c>
@@ -15291,11 +15992,14 @@
       <c r="L233" t="s">
         <v>31</v>
       </c>
-      <c r="M233" t="s">
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="234" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>241</v>
       </c>
@@ -15332,11 +16036,14 @@
       <c r="L234" t="s">
         <v>31</v>
       </c>
-      <c r="M234" t="s">
+      <c r="M234">
+        <v>0</v>
+      </c>
+      <c r="N234" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="235" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>316</v>
       </c>
@@ -15373,11 +16080,14 @@
       <c r="L235" t="s">
         <v>23</v>
       </c>
-      <c r="M235" t="s">
+      <c r="M235">
+        <v>1</v>
+      </c>
+      <c r="N235" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="236" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>91</v>
       </c>
@@ -15414,11 +16124,14 @@
       <c r="L236" t="s">
         <v>31</v>
       </c>
-      <c r="M236" t="s">
+      <c r="M236">
+        <v>0</v>
+      </c>
+      <c r="N236" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="237" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>169</v>
       </c>
@@ -15455,11 +16168,14 @@
       <c r="L237" t="s">
         <v>31</v>
       </c>
-      <c r="M237" t="s">
+      <c r="M237">
+        <v>0</v>
+      </c>
+      <c r="N237" t="s">
         <v>866</v>
       </c>
     </row>
-    <row r="238" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>867</v>
       </c>
@@ -15496,11 +16212,14 @@
       <c r="L238" t="s">
         <v>31</v>
       </c>
-      <c r="M238" t="s">
+      <c r="M238">
+        <v>0</v>
+      </c>
+      <c r="N238" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="239" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>63</v>
       </c>
@@ -15537,11 +16256,14 @@
       <c r="L239" t="s">
         <v>31</v>
       </c>
-      <c r="M239" t="s">
+      <c r="M239">
+        <v>0</v>
+      </c>
+      <c r="N239" t="s">
         <v>874</v>
       </c>
     </row>
-    <row r="240" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>338</v>
       </c>
@@ -15578,11 +16300,14 @@
       <c r="L240" t="s">
         <v>31</v>
       </c>
-      <c r="M240" t="s">
+      <c r="M240">
+        <v>0</v>
+      </c>
+      <c r="N240" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>229</v>
       </c>
@@ -15619,11 +16344,14 @@
       <c r="L241" t="s">
         <v>31</v>
       </c>
-      <c r="M241" t="s">
+      <c r="M241">
+        <v>0</v>
+      </c>
+      <c r="N241" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>63</v>
       </c>
@@ -15660,11 +16388,14 @@
       <c r="L242" t="s">
         <v>31</v>
       </c>
-      <c r="M242" t="s">
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>881</v>
       </c>
@@ -15701,11 +16432,14 @@
       <c r="L243" t="s">
         <v>23</v>
       </c>
-      <c r="M243" t="s">
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>52</v>
       </c>
@@ -15742,11 +16476,14 @@
       <c r="L244" t="s">
         <v>31</v>
       </c>
-      <c r="M244" t="s">
+      <c r="M244">
+        <v>1</v>
+      </c>
+      <c r="N244" t="s">
         <v>890</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>307</v>
       </c>
@@ -15783,11 +16520,14 @@
       <c r="L245" t="s">
         <v>31</v>
       </c>
-      <c r="M245" t="s">
+      <c r="M245">
+        <v>1</v>
+      </c>
+      <c r="N245" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>467</v>
       </c>
@@ -15824,11 +16564,14 @@
       <c r="L246" t="s">
         <v>31</v>
       </c>
-      <c r="M246" t="s">
+      <c r="M246">
+        <v>1</v>
+      </c>
+      <c r="N246" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>13</v>
       </c>
@@ -15865,11 +16608,14 @@
       <c r="L247" t="s">
         <v>23</v>
       </c>
-      <c r="M247" t="s">
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>127</v>
       </c>
@@ -15906,11 +16652,14 @@
       <c r="L248" t="s">
         <v>31</v>
       </c>
-      <c r="M248" t="s">
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="249" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>178</v>
       </c>
@@ -15947,11 +16696,14 @@
       <c r="L249" t="s">
         <v>31</v>
       </c>
-      <c r="M249" t="s">
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
         <v>902</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>903</v>
       </c>
@@ -15988,11 +16740,14 @@
       <c r="L250" t="s">
         <v>31</v>
       </c>
-      <c r="M250" t="s">
+      <c r="M250">
+        <v>1</v>
+      </c>
+      <c r="N250" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>906</v>
       </c>
@@ -16029,11 +16784,14 @@
       <c r="L251" t="s">
         <v>23</v>
       </c>
-      <c r="M251" t="s">
+      <c r="M251">
+        <v>1</v>
+      </c>
+      <c r="N251" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>197</v>
       </c>
@@ -16070,11 +16828,14 @@
       <c r="L252" t="s">
         <v>31</v>
       </c>
-      <c r="M252" t="s">
+      <c r="M252">
+        <v>0</v>
+      </c>
+      <c r="N252" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>91</v>
       </c>
@@ -16111,11 +16872,14 @@
       <c r="L253" t="s">
         <v>31</v>
       </c>
-      <c r="M253" t="s">
+      <c r="M253">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>197</v>
       </c>
@@ -16152,11 +16916,14 @@
       <c r="L254" t="s">
         <v>31</v>
       </c>
-      <c r="M254" t="s">
+      <c r="M254">
+        <v>0</v>
+      </c>
+      <c r="N254" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>918</v>
       </c>
@@ -16193,11 +16960,14 @@
       <c r="L255" t="s">
         <v>23</v>
       </c>
-      <c r="M255" t="s">
+      <c r="M255">
+        <v>0</v>
+      </c>
+      <c r="N255" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>13</v>
       </c>
@@ -16234,11 +17004,14 @@
       <c r="L256" t="s">
         <v>23</v>
       </c>
-      <c r="M256" t="s">
+      <c r="M256">
+        <v>0</v>
+      </c>
+      <c r="N256" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="257" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>321</v>
       </c>
@@ -16275,11 +17048,14 @@
       <c r="L257" t="s">
         <v>31</v>
       </c>
-      <c r="M257" t="s">
+      <c r="M257">
+        <v>0</v>
+      </c>
+      <c r="N257" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="258" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>927</v>
       </c>
@@ -16316,11 +17092,14 @@
       <c r="L258" t="s">
         <v>23</v>
       </c>
-      <c r="M258" t="s">
+      <c r="M258">
+        <v>0</v>
+      </c>
+      <c r="N258" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="259" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>106</v>
       </c>
@@ -16357,11 +17136,14 @@
       <c r="L259" t="s">
         <v>31</v>
       </c>
-      <c r="M259" t="s">
+      <c r="M259">
+        <v>0</v>
+      </c>
+      <c r="N259" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="260" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>52</v>
       </c>
@@ -16398,11 +17180,14 @@
       <c r="L260" t="s">
         <v>31</v>
       </c>
-      <c r="M260" t="s">
+      <c r="M260">
+        <v>0</v>
+      </c>
+      <c r="N260" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="261" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>906</v>
       </c>
@@ -16439,11 +17224,14 @@
       <c r="L261" t="s">
         <v>23</v>
       </c>
-      <c r="M261" t="s">
+      <c r="M261">
+        <v>0</v>
+      </c>
+      <c r="N261" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="262" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>428</v>
       </c>
@@ -16480,11 +17268,14 @@
       <c r="L262" t="s">
         <v>31</v>
       </c>
-      <c r="M262" t="s">
+      <c r="M262">
+        <v>0</v>
+      </c>
+      <c r="N262" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="263" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>428</v>
       </c>
@@ -16521,11 +17312,14 @@
       <c r="L263" t="s">
         <v>31</v>
       </c>
-      <c r="M263" t="s">
+      <c r="M263">
+        <v>0</v>
+      </c>
+      <c r="N263" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="264" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>63</v>
       </c>
@@ -16562,11 +17356,14 @@
       <c r="L264" t="s">
         <v>31</v>
       </c>
-      <c r="M264" t="s">
+      <c r="M264">
+        <v>0</v>
+      </c>
+      <c r="N264" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="265" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>428</v>
       </c>
@@ -16603,11 +17400,14 @@
       <c r="L265" t="s">
         <v>31</v>
       </c>
-      <c r="M265" t="s">
+      <c r="M265">
+        <v>0</v>
+      </c>
+      <c r="N265" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="266" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>169</v>
       </c>
@@ -16644,11 +17444,14 @@
       <c r="L266" t="s">
         <v>23</v>
       </c>
-      <c r="M266" t="s">
+      <c r="M266">
+        <v>0</v>
+      </c>
+      <c r="N266" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="267" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>316</v>
       </c>
@@ -16685,11 +17488,14 @@
       <c r="L267" t="s">
         <v>23</v>
       </c>
-      <c r="M267" t="s">
+      <c r="M267">
+        <v>0</v>
+      </c>
+      <c r="N267" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="268" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>106</v>
       </c>
@@ -16726,11 +17532,14 @@
       <c r="L268" t="s">
         <v>31</v>
       </c>
-      <c r="M268" t="s">
+      <c r="M268">
+        <v>1</v>
+      </c>
+      <c r="N268" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="269" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>516</v>
       </c>
@@ -16767,11 +17576,14 @@
       <c r="L269" t="s">
         <v>31</v>
       </c>
-      <c r="M269" t="s">
+      <c r="M269">
+        <v>0</v>
+      </c>
+      <c r="N269" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="270" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>906</v>
       </c>
@@ -16808,11 +17620,14 @@
       <c r="L270" t="s">
         <v>23</v>
       </c>
-      <c r="M270" t="s">
+      <c r="M270">
+        <v>0</v>
+      </c>
+      <c r="N270" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="271" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>169</v>
       </c>
@@ -16849,11 +17664,14 @@
       <c r="L271" t="s">
         <v>23</v>
       </c>
-      <c r="M271" t="s">
+      <c r="M271">
+        <v>0</v>
+      </c>
+      <c r="N271" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="272" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>906</v>
       </c>
@@ -16890,11 +17708,14 @@
       <c r="L272" t="s">
         <v>23</v>
       </c>
-      <c r="M272" t="s">
+      <c r="M272">
+        <v>0</v>
+      </c>
+      <c r="N272" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>106</v>
       </c>
@@ -16931,11 +17752,14 @@
       <c r="L273" t="s">
         <v>31</v>
       </c>
-      <c r="M273" t="s">
+      <c r="M273">
+        <v>0</v>
+      </c>
+      <c r="N273" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>906</v>
       </c>
@@ -16972,11 +17796,14 @@
       <c r="L274" t="s">
         <v>23</v>
       </c>
-      <c r="M274" t="s">
+      <c r="M274">
+        <v>0</v>
+      </c>
+      <c r="N274" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>241</v>
       </c>
@@ -17013,11 +17840,14 @@
       <c r="L275" t="s">
         <v>31</v>
       </c>
-      <c r="M275" t="s">
+      <c r="M275">
+        <v>0</v>
+      </c>
+      <c r="N275" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="276" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>639</v>
       </c>
@@ -17054,11 +17884,14 @@
       <c r="L276" t="s">
         <v>31</v>
       </c>
-      <c r="M276" t="s">
+      <c r="M276">
+        <v>0</v>
+      </c>
+      <c r="N276" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>197</v>
       </c>
@@ -17095,11 +17928,14 @@
       <c r="L277" t="s">
         <v>31</v>
       </c>
-      <c r="M277" t="s">
+      <c r="M277">
+        <v>0</v>
+      </c>
+      <c r="N277" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>127</v>
       </c>
@@ -17136,11 +17972,14 @@
       <c r="L278" t="s">
         <v>31</v>
       </c>
-      <c r="M278" t="s">
+      <c r="M278">
+        <v>1</v>
+      </c>
+      <c r="N278" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>241</v>
       </c>
@@ -17177,11 +18016,14 @@
       <c r="L279" t="s">
         <v>31</v>
       </c>
-      <c r="M279" t="s">
+      <c r="M279">
+        <v>1</v>
+      </c>
+      <c r="N279" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>91</v>
       </c>
@@ -17218,11 +18060,14 @@
       <c r="L280" t="s">
         <v>31</v>
       </c>
-      <c r="M280" t="s">
+      <c r="M280">
+        <v>0</v>
+      </c>
+      <c r="N280" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>169</v>
       </c>
@@ -17259,11 +18104,14 @@
       <c r="L281" t="s">
         <v>23</v>
       </c>
-      <c r="M281" t="s">
+      <c r="M281">
+        <v>0</v>
+      </c>
+      <c r="N281" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>85</v>
       </c>
@@ -17300,11 +18148,14 @@
       <c r="L282" t="s">
         <v>31</v>
       </c>
-      <c r="M282" t="s">
+      <c r="M282">
+        <v>0</v>
+      </c>
+      <c r="N282" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>80</v>
       </c>
@@ -17341,11 +18192,14 @@
       <c r="L283" t="s">
         <v>31</v>
       </c>
-      <c r="M283" t="s">
+      <c r="M283">
+        <v>0</v>
+      </c>
+      <c r="N283" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>33</v>
       </c>
@@ -17382,11 +18236,14 @@
       <c r="L284" t="s">
         <v>31</v>
       </c>
-      <c r="M284" t="s">
+      <c r="M284">
+        <v>0</v>
+      </c>
+      <c r="N284" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>25</v>
       </c>
@@ -17423,11 +18280,14 @@
       <c r="L285" t="s">
         <v>31</v>
       </c>
-      <c r="M285" t="s">
+      <c r="M285">
+        <v>0</v>
+      </c>
+      <c r="N285" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>112</v>
       </c>
@@ -17464,11 +18324,14 @@
       <c r="L286" t="s">
         <v>31</v>
       </c>
-      <c r="M286" t="s">
+      <c r="M286">
+        <v>0</v>
+      </c>
+      <c r="N286" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>44</v>
       </c>
@@ -17505,11 +18368,14 @@
       <c r="L287" t="s">
         <v>23</v>
       </c>
-      <c r="M287" t="s">
+      <c r="M287">
+        <v>0</v>
+      </c>
+      <c r="N287" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>91</v>
       </c>
@@ -17546,11 +18412,14 @@
       <c r="L288" t="s">
         <v>31</v>
       </c>
-      <c r="M288" t="s">
+      <c r="M288">
+        <v>0</v>
+      </c>
+      <c r="N288" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="289" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>112</v>
       </c>
@@ -17587,11 +18456,14 @@
       <c r="L289" t="s">
         <v>31</v>
       </c>
-      <c r="M289" t="s">
+      <c r="M289">
+        <v>0</v>
+      </c>
+      <c r="N289" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="290" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>321</v>
       </c>
@@ -17628,11 +18500,14 @@
       <c r="L290" t="s">
         <v>31</v>
       </c>
-      <c r="M290" t="s">
+      <c r="M290">
+        <v>0</v>
+      </c>
+      <c r="N290" t="s">
         <v>1024</v>
       </c>
     </row>
-    <row r="291" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>63</v>
       </c>
@@ -17669,11 +18544,14 @@
       <c r="L291" t="s">
         <v>31</v>
       </c>
-      <c r="M291" t="s">
+      <c r="M291">
+        <v>0</v>
+      </c>
+      <c r="N291" t="s">
         <v>1028</v>
       </c>
     </row>
-    <row r="292" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>197</v>
       </c>
@@ -17710,11 +18588,14 @@
       <c r="L292" t="s">
         <v>31</v>
       </c>
-      <c r="M292" t="s">
+      <c r="M292">
+        <v>0</v>
+      </c>
+      <c r="N292" t="s">
         <v>1030</v>
       </c>
     </row>
-    <row r="293" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>169</v>
       </c>
@@ -17751,11 +18632,14 @@
       <c r="L293" t="s">
         <v>23</v>
       </c>
-      <c r="M293" t="s">
+      <c r="M293">
+        <v>0</v>
+      </c>
+      <c r="N293" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="294" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>91</v>
       </c>
@@ -17792,11 +18676,14 @@
       <c r="L294" t="s">
         <v>31</v>
       </c>
-      <c r="M294" t="s">
+      <c r="M294">
+        <v>0</v>
+      </c>
+      <c r="N294" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="295" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>91</v>
       </c>
@@ -17833,11 +18720,14 @@
       <c r="L295" t="s">
         <v>31</v>
       </c>
-      <c r="M295" t="s">
+      <c r="M295">
+        <v>1</v>
+      </c>
+      <c r="N295" t="s">
         <v>1038</v>
       </c>
     </row>
-    <row r="296" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>91</v>
       </c>
@@ -17874,11 +18764,14 @@
       <c r="L296" t="s">
         <v>31</v>
       </c>
-      <c r="M296" t="s">
+      <c r="M296">
+        <v>0</v>
+      </c>
+      <c r="N296" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="297" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>197</v>
       </c>
@@ -17915,11 +18808,14 @@
       <c r="L297" t="s">
         <v>31</v>
       </c>
-      <c r="M297" t="s">
+      <c r="M297">
+        <v>0</v>
+      </c>
+      <c r="N297" t="s">
         <v>1044</v>
       </c>
     </row>
-    <row r="298" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>169</v>
       </c>
@@ -17956,11 +18852,14 @@
       <c r="L298" t="s">
         <v>23</v>
       </c>
-      <c r="M298" t="s">
+      <c r="M298">
+        <v>0</v>
+      </c>
+      <c r="N298" t="s">
         <v>1047</v>
       </c>
     </row>
-    <row r="299" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>1048</v>
       </c>
@@ -17997,11 +18896,14 @@
       <c r="L299" t="s">
         <v>23</v>
       </c>
-      <c r="M299" t="s">
+      <c r="M299">
+        <v>0</v>
+      </c>
+      <c r="N299" t="s">
         <v>1051</v>
       </c>
     </row>
-    <row r="300" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>1048</v>
       </c>
@@ -18038,11 +18940,14 @@
       <c r="L300" t="s">
         <v>23</v>
       </c>
-      <c r="M300" t="s">
+      <c r="M300">
+        <v>0</v>
+      </c>
+      <c r="N300" t="s">
         <v>1054</v>
       </c>
     </row>
-    <row r="301" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>197</v>
       </c>
@@ -18079,11 +18984,14 @@
       <c r="L301" t="s">
         <v>31</v>
       </c>
-      <c r="M301" t="s">
+      <c r="M301">
+        <v>1</v>
+      </c>
+      <c r="N301" t="s">
         <v>1057</v>
       </c>
     </row>
-    <row r="302" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>178</v>
       </c>
@@ -18120,11 +19028,14 @@
       <c r="L302" t="s">
         <v>31</v>
       </c>
-      <c r="M302" t="s">
+      <c r="M302">
+        <v>1</v>
+      </c>
+      <c r="N302" t="s">
         <v>1060</v>
       </c>
     </row>
-    <row r="303" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>138</v>
       </c>
@@ -18161,11 +19072,14 @@
       <c r="L303" t="s">
         <v>23</v>
       </c>
-      <c r="M303" t="s">
+      <c r="M303">
+        <v>1</v>
+      </c>
+      <c r="N303" t="s">
         <v>1063</v>
       </c>
     </row>
-    <row r="304" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>1064</v>
       </c>
@@ -18202,11 +19116,14 @@
       <c r="L304" t="s">
         <v>31</v>
       </c>
-      <c r="M304" t="s">
+      <c r="M304">
+        <v>1</v>
+      </c>
+      <c r="N304" t="s">
         <v>1068</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>585</v>
       </c>
@@ -18243,11 +19160,14 @@
       <c r="L305" t="s">
         <v>31</v>
       </c>
-      <c r="M305" t="s">
+      <c r="M305">
+        <v>0</v>
+      </c>
+      <c r="N305" t="s">
         <v>1070</v>
       </c>
     </row>
-    <row r="306" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>63</v>
       </c>
@@ -18284,11 +19204,14 @@
       <c r="L306" t="s">
         <v>31</v>
       </c>
-      <c r="M306" t="s">
+      <c r="M306">
+        <v>0</v>
+      </c>
+      <c r="N306" t="s">
         <v>1074</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>169</v>
       </c>
@@ -18325,11 +19248,14 @@
       <c r="L307" t="s">
         <v>31</v>
       </c>
-      <c r="M307" t="s">
+      <c r="M307">
+        <v>0</v>
+      </c>
+      <c r="N307" t="s">
         <v>1077</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>138</v>
       </c>
@@ -18366,11 +19292,14 @@
       <c r="L308" t="s">
         <v>23</v>
       </c>
-      <c r="M308" t="s">
+      <c r="M308">
+        <v>1</v>
+      </c>
+      <c r="N308" t="s">
         <v>1080</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>127</v>
       </c>
@@ -18407,11 +19336,14 @@
       <c r="L309" t="s">
         <v>31</v>
       </c>
-      <c r="M309" t="s">
+      <c r="M309">
+        <v>0</v>
+      </c>
+      <c r="N309" t="s">
         <v>1082</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>127</v>
       </c>
@@ -18448,11 +19380,14 @@
       <c r="L310" t="s">
         <v>31</v>
       </c>
-      <c r="M310" t="s">
+      <c r="M310">
+        <v>0</v>
+      </c>
+      <c r="N310" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>25</v>
       </c>
@@ -18489,11 +19424,14 @@
       <c r="L311" t="s">
         <v>31</v>
       </c>
-      <c r="M311" t="s">
+      <c r="M311">
+        <v>0</v>
+      </c>
+      <c r="N311" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>205</v>
       </c>
@@ -18530,11 +19468,14 @@
       <c r="L312" t="s">
         <v>31</v>
       </c>
-      <c r="M312" t="s">
+      <c r="M312">
+        <v>0</v>
+      </c>
+      <c r="N312" t="s">
         <v>1091</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>169</v>
       </c>
@@ -18571,11 +19512,14 @@
       <c r="L313" t="s">
         <v>31</v>
       </c>
-      <c r="M313" t="s">
+      <c r="M313">
+        <v>0</v>
+      </c>
+      <c r="N313" t="s">
         <v>1093</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>25</v>
       </c>
@@ -18612,11 +19556,14 @@
       <c r="L314" t="s">
         <v>31</v>
       </c>
-      <c r="M314" t="s">
+      <c r="M314">
+        <v>0</v>
+      </c>
+      <c r="N314" t="s">
         <v>1096</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>25</v>
       </c>
@@ -18653,11 +19600,14 @@
       <c r="L315" t="s">
         <v>31</v>
       </c>
-      <c r="M315" t="s">
+      <c r="M315">
+        <v>0</v>
+      </c>
+      <c r="N315" t="s">
         <v>1099</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>428</v>
       </c>
@@ -18694,11 +19644,14 @@
       <c r="L316" t="s">
         <v>31</v>
       </c>
-      <c r="M316" t="s">
+      <c r="M316">
+        <v>0</v>
+      </c>
+      <c r="N316" t="s">
         <v>1102</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>428</v>
       </c>
@@ -18735,11 +19688,14 @@
       <c r="L317" t="s">
         <v>31</v>
       </c>
-      <c r="M317" t="s">
+      <c r="M317">
+        <v>0</v>
+      </c>
+      <c r="N317" t="s">
         <v>1106</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>169</v>
       </c>
@@ -18776,11 +19732,14 @@
       <c r="L318" t="s">
         <v>23</v>
       </c>
-      <c r="M318" t="s">
+      <c r="M318">
+        <v>1</v>
+      </c>
+      <c r="N318" t="s">
         <v>1109</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>33</v>
       </c>
@@ -18817,11 +19776,14 @@
       <c r="L319" t="s">
         <v>31</v>
       </c>
-      <c r="M319" t="s">
+      <c r="M319">
+        <v>0</v>
+      </c>
+      <c r="N319" t="s">
         <v>1113</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>25</v>
       </c>
@@ -18858,11 +19820,14 @@
       <c r="L320" t="s">
         <v>31</v>
       </c>
-      <c r="M320" t="s">
+      <c r="M320">
+        <v>0</v>
+      </c>
+      <c r="N320" t="s">
         <v>1116</v>
       </c>
     </row>
-    <row r="321" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>1048</v>
       </c>
@@ -18899,11 +19864,14 @@
       <c r="L321" t="s">
         <v>23</v>
       </c>
-      <c r="M321" t="s">
+      <c r="M321">
+        <v>0</v>
+      </c>
+      <c r="N321" t="s">
         <v>1119</v>
       </c>
     </row>
-    <row r="322" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>906</v>
       </c>
@@ -18940,11 +19908,14 @@
       <c r="L322" t="s">
         <v>23</v>
       </c>
-      <c r="M322" t="s">
+      <c r="M322">
+        <v>0</v>
+      </c>
+      <c r="N322" t="s">
         <v>1122</v>
       </c>
     </row>
-    <row r="323" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>516</v>
       </c>
@@ -18981,11 +19952,14 @@
       <c r="L323" t="s">
         <v>31</v>
       </c>
-      <c r="M323" t="s">
+      <c r="M323">
+        <v>0</v>
+      </c>
+      <c r="N323" t="s">
         <v>1127</v>
       </c>
     </row>
-    <row r="324" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>1048</v>
       </c>
@@ -19022,11 +19996,14 @@
       <c r="L324" t="s">
         <v>23</v>
       </c>
-      <c r="M324" t="s">
+      <c r="M324">
+        <v>0</v>
+      </c>
+      <c r="N324" t="s">
         <v>1131</v>
       </c>
     </row>
-    <row r="325" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>178</v>
       </c>
@@ -19063,11 +20040,14 @@
       <c r="L325" t="s">
         <v>31</v>
       </c>
-      <c r="M325" t="s">
+      <c r="M325">
+        <v>0</v>
+      </c>
+      <c r="N325" t="s">
         <v>1133</v>
       </c>
     </row>
-    <row r="326" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>132</v>
       </c>
@@ -19104,11 +20084,14 @@
       <c r="L326" t="s">
         <v>31</v>
       </c>
-      <c r="M326" t="s">
+      <c r="M326">
+        <v>0</v>
+      </c>
+      <c r="N326" t="s">
         <v>1136</v>
       </c>
     </row>
-    <row r="327" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>106</v>
       </c>
@@ -19145,11 +20128,14 @@
       <c r="L327" t="s">
         <v>31</v>
       </c>
-      <c r="M327" t="s">
+      <c r="M327">
+        <v>0</v>
+      </c>
+      <c r="N327" t="s">
         <v>1139</v>
       </c>
     </row>
-    <row r="328" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>25</v>
       </c>
@@ -19186,11 +20172,14 @@
       <c r="L328" t="s">
         <v>31</v>
       </c>
-      <c r="M328" t="s">
+      <c r="M328">
+        <v>0</v>
+      </c>
+      <c r="N328" t="s">
         <v>1142</v>
       </c>
     </row>
-    <row r="329" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>85</v>
       </c>
@@ -19227,11 +20216,14 @@
       <c r="L329" t="s">
         <v>31</v>
       </c>
-      <c r="M329" t="s">
+      <c r="M329">
+        <v>0</v>
+      </c>
+      <c r="N329" t="s">
         <v>1144</v>
       </c>
     </row>
-    <row r="330" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>13</v>
       </c>
@@ -19268,11 +20260,14 @@
       <c r="L330" t="s">
         <v>23</v>
       </c>
-      <c r="M330" t="s">
+      <c r="M330">
+        <v>0</v>
+      </c>
+      <c r="N330" t="s">
         <v>1147</v>
       </c>
     </row>
-    <row r="331" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>13</v>
       </c>
@@ -19309,11 +20304,14 @@
       <c r="L331" t="s">
         <v>23</v>
       </c>
-      <c r="M331" t="s">
+      <c r="M331">
+        <v>0</v>
+      </c>
+      <c r="N331" t="s">
         <v>1150</v>
       </c>
     </row>
-    <row r="332" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>241</v>
       </c>
@@ -19350,11 +20348,14 @@
       <c r="L332" t="s">
         <v>31</v>
       </c>
-      <c r="M332" t="s">
+      <c r="M332">
+        <v>0</v>
+      </c>
+      <c r="N332" t="s">
         <v>1154</v>
       </c>
     </row>
-    <row r="333" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>1155</v>
       </c>
@@ -19391,11 +20392,14 @@
       <c r="L333" t="s">
         <v>31</v>
       </c>
-      <c r="M333" t="s">
+      <c r="M333">
+        <v>0</v>
+      </c>
+      <c r="N333" t="s">
         <v>1157</v>
       </c>
     </row>
-    <row r="334" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>197</v>
       </c>
@@ -19432,11 +20436,14 @@
       <c r="L334" t="s">
         <v>31</v>
       </c>
-      <c r="M334" t="s">
+      <c r="M334">
+        <v>0</v>
+      </c>
+      <c r="N334" t="s">
         <v>1160</v>
       </c>
     </row>
-    <row r="335" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>1048</v>
       </c>
@@ -19473,11 +20480,14 @@
       <c r="L335" t="s">
         <v>23</v>
       </c>
-      <c r="M335" t="s">
+      <c r="M335">
+        <v>0</v>
+      </c>
+      <c r="N335" t="s">
         <v>1163</v>
       </c>
     </row>
-    <row r="336" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>516</v>
       </c>
@@ -19514,11 +20524,14 @@
       <c r="L336" t="s">
         <v>31</v>
       </c>
-      <c r="M336" t="s">
+      <c r="M336">
+        <v>0</v>
+      </c>
+      <c r="N336" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>1048</v>
       </c>
@@ -19555,11 +20568,14 @@
       <c r="L337" t="s">
         <v>23</v>
       </c>
-      <c r="M337" t="s">
+      <c r="M337">
+        <v>0</v>
+      </c>
+      <c r="N337" t="s">
         <v>1170</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>1048</v>
       </c>
@@ -19596,11 +20612,14 @@
       <c r="L338" t="s">
         <v>23</v>
       </c>
-      <c r="M338" t="s">
+      <c r="M338">
+        <v>0</v>
+      </c>
+      <c r="N338" t="s">
         <v>1173</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>197</v>
       </c>
@@ -19637,11 +20656,14 @@
       <c r="L339" t="s">
         <v>31</v>
       </c>
-      <c r="M339" t="s">
+      <c r="M339">
+        <v>0</v>
+      </c>
+      <c r="N339" t="s">
         <v>1176</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>127</v>
       </c>
@@ -19678,11 +20700,14 @@
       <c r="L340" t="s">
         <v>31</v>
       </c>
-      <c r="M340" t="s">
+      <c r="M340">
+        <v>0</v>
+      </c>
+      <c r="N340" t="s">
         <v>1179</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>197</v>
       </c>
@@ -19719,11 +20744,14 @@
       <c r="L341" t="s">
         <v>31</v>
       </c>
-      <c r="M341" t="s">
+      <c r="M341">
+        <v>0</v>
+      </c>
+      <c r="N341" t="s">
         <v>1182</v>
       </c>
     </row>
-    <row r="342" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>1183</v>
       </c>
@@ -19760,11 +20788,14 @@
       <c r="L342" t="s">
         <v>23</v>
       </c>
-      <c r="M342" t="s">
+      <c r="M342">
+        <v>0</v>
+      </c>
+      <c r="N342" t="s">
         <v>1186</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>1187</v>
       </c>
@@ -19801,11 +20832,14 @@
       <c r="L343" t="s">
         <v>23</v>
       </c>
-      <c r="M343" t="s">
+      <c r="M343">
+        <v>0</v>
+      </c>
+      <c r="N343" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>321</v>
       </c>
@@ -19842,11 +20876,14 @@
       <c r="L344" t="s">
         <v>31</v>
       </c>
-      <c r="M344" t="s">
+      <c r="M344">
+        <v>0</v>
+      </c>
+      <c r="N344" t="s">
         <v>1191</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>1183</v>
       </c>
@@ -19883,11 +20920,14 @@
       <c r="L345" t="s">
         <v>23</v>
       </c>
-      <c r="M345" t="s">
+      <c r="M345">
+        <v>0</v>
+      </c>
+      <c r="N345" t="s">
         <v>1194</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>467</v>
       </c>
@@ -19924,11 +20964,14 @@
       <c r="L346" t="s">
         <v>31</v>
       </c>
-      <c r="M346" t="s">
+      <c r="M346">
+        <v>0</v>
+      </c>
+      <c r="N346" t="s">
         <v>1197</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>91</v>
       </c>
@@ -19965,11 +21008,14 @@
       <c r="L347" t="s">
         <v>31</v>
       </c>
-      <c r="M347" t="s">
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="N347" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>197</v>
       </c>
@@ -20006,11 +21052,14 @@
       <c r="L348" t="s">
         <v>31</v>
       </c>
-      <c r="M348" t="s">
+      <c r="M348">
+        <v>0</v>
+      </c>
+      <c r="N348" t="s">
         <v>1202</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>316</v>
       </c>
@@ -20047,11 +21096,14 @@
       <c r="L349" t="s">
         <v>23</v>
       </c>
-      <c r="M349" t="s">
+      <c r="M349">
+        <v>0</v>
+      </c>
+      <c r="N349" t="s">
         <v>1205</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>25</v>
       </c>
@@ -20088,11 +21140,14 @@
       <c r="L350" t="s">
         <v>31</v>
       </c>
-      <c r="M350" t="s">
+      <c r="M350">
+        <v>0</v>
+      </c>
+      <c r="N350" t="s">
         <v>1207</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>197</v>
       </c>
@@ -20129,11 +21184,14 @@
       <c r="L351" t="s">
         <v>31</v>
       </c>
-      <c r="M351" t="s">
+      <c r="M351">
+        <v>0</v>
+      </c>
+      <c r="N351" t="s">
         <v>1210</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>197</v>
       </c>
@@ -20170,11 +21228,14 @@
       <c r="L352" t="s">
         <v>31</v>
       </c>
-      <c r="M352" t="s">
+      <c r="M352">
+        <v>0</v>
+      </c>
+      <c r="N352" t="s">
         <v>1213</v>
       </c>
     </row>
-    <row r="353" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>241</v>
       </c>
@@ -20208,11 +21269,14 @@
       <c r="L353" t="s">
         <v>31</v>
       </c>
-      <c r="M353" t="s">
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>13</v>
       </c>
@@ -20249,11 +21313,14 @@
       <c r="L354" t="s">
         <v>23</v>
       </c>
-      <c r="M354" t="s">
+      <c r="M354">
+        <v>0</v>
+      </c>
+      <c r="N354" t="s">
         <v>1219</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>80</v>
       </c>
@@ -20290,11 +21357,14 @@
       <c r="L355" t="s">
         <v>31</v>
       </c>
-      <c r="M355" t="s">
+      <c r="M355">
+        <v>0</v>
+      </c>
+      <c r="N355" t="s">
         <v>1222</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>1223</v>
       </c>
@@ -20331,11 +21401,14 @@
       <c r="L356" t="s">
         <v>31</v>
       </c>
-      <c r="M356" t="s">
+      <c r="M356">
+        <v>0</v>
+      </c>
+      <c r="N356" t="s">
         <v>1226</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>820</v>
       </c>
@@ -20372,11 +21445,14 @@
       <c r="L357" t="s">
         <v>31</v>
       </c>
-      <c r="M357" t="s">
+      <c r="M357">
+        <v>0</v>
+      </c>
+      <c r="N357" t="s">
         <v>1229</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>138</v>
       </c>
@@ -20413,11 +21489,14 @@
       <c r="L358" t="s">
         <v>23</v>
       </c>
-      <c r="M358" t="s">
+      <c r="M358">
+        <v>0</v>
+      </c>
+      <c r="N358" t="s">
         <v>1232</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>1233</v>
       </c>
@@ -20454,11 +21533,14 @@
       <c r="L359" t="s">
         <v>31</v>
       </c>
-      <c r="M359" t="s">
+      <c r="M359">
+        <v>0</v>
+      </c>
+      <c r="N359" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>197</v>
       </c>
@@ -20495,11 +21577,14 @@
       <c r="L360" t="s">
         <v>31</v>
       </c>
-      <c r="M360" t="s">
+      <c r="M360">
+        <v>0</v>
+      </c>
+      <c r="N360" t="s">
         <v>1239</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>1240</v>
       </c>
@@ -20536,11 +21621,14 @@
       <c r="L361" t="s">
         <v>31</v>
       </c>
-      <c r="M361" t="s">
+      <c r="M361">
+        <v>0</v>
+      </c>
+      <c r="N361" t="s">
         <v>1244</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>258</v>
       </c>
@@ -20577,11 +21665,14 @@
       <c r="L362" t="s">
         <v>31</v>
       </c>
-      <c r="M362" t="s">
+      <c r="M362">
+        <v>0</v>
+      </c>
+      <c r="N362" t="s">
         <v>1246</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>197</v>
       </c>
@@ -20618,11 +21709,14 @@
       <c r="L363" t="s">
         <v>31</v>
       </c>
-      <c r="M363" t="s">
+      <c r="M363">
+        <v>0</v>
+      </c>
+      <c r="N363" t="s">
         <v>1249</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>229</v>
       </c>
@@ -20659,11 +21753,14 @@
       <c r="L364" t="s">
         <v>31</v>
       </c>
-      <c r="M364" t="s">
+      <c r="M364">
+        <v>0</v>
+      </c>
+      <c r="N364" t="s">
         <v>1251</v>
       </c>
     </row>
-    <row r="365" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>25</v>
       </c>
@@ -20700,11 +21797,14 @@
       <c r="L365" t="s">
         <v>31</v>
       </c>
-      <c r="M365" t="s">
+      <c r="M365">
+        <v>0</v>
+      </c>
+      <c r="N365" t="s">
         <v>1254</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>316</v>
       </c>
@@ -20741,11 +21841,14 @@
       <c r="L366" t="s">
         <v>23</v>
       </c>
-      <c r="M366" t="s">
+      <c r="M366">
+        <v>0</v>
+      </c>
+      <c r="N366" t="s">
         <v>1256</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>316</v>
       </c>
@@ -20782,11 +21885,14 @@
       <c r="L367" t="s">
         <v>23</v>
       </c>
-      <c r="M367" t="s">
+      <c r="M367">
+        <v>0</v>
+      </c>
+      <c r="N367" t="s">
         <v>1259</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>316</v>
       </c>
@@ -20823,11 +21929,14 @@
       <c r="L368" t="s">
         <v>23</v>
       </c>
-      <c r="M368" t="s">
+      <c r="M368">
+        <v>0</v>
+      </c>
+      <c r="N368" t="s">
         <v>1263</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>13</v>
       </c>
@@ -20864,11 +21973,14 @@
       <c r="L369" t="s">
         <v>23</v>
       </c>
-      <c r="M369" t="s">
+      <c r="M369">
+        <v>0</v>
+      </c>
+      <c r="N369" t="s">
         <v>1266</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>25</v>
       </c>
@@ -20905,11 +22017,14 @@
       <c r="L370" t="s">
         <v>31</v>
       </c>
-      <c r="M370" t="s">
+      <c r="M370">
+        <v>0</v>
+      </c>
+      <c r="N370" t="s">
         <v>1268</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>25</v>
       </c>
@@ -20946,11 +22061,14 @@
       <c r="L371" t="s">
         <v>31</v>
       </c>
-      <c r="M371" t="s">
+      <c r="M371">
+        <v>0</v>
+      </c>
+      <c r="N371" t="s">
         <v>1272</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>316</v>
       </c>
@@ -20987,11 +22105,14 @@
       <c r="L372" t="s">
         <v>23</v>
       </c>
-      <c r="M372" t="s">
+      <c r="M372">
+        <v>0</v>
+      </c>
+      <c r="N372" t="s">
         <v>1275</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>91</v>
       </c>
@@ -21028,11 +22149,14 @@
       <c r="L373" t="s">
         <v>31</v>
       </c>
-      <c r="M373" t="s">
+      <c r="M373">
+        <v>0</v>
+      </c>
+      <c r="N373" t="s">
         <v>1277</v>
       </c>
     </row>
-    <row r="374" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>338</v>
       </c>
@@ -21069,11 +22193,14 @@
       <c r="L374" t="s">
         <v>31</v>
       </c>
-      <c r="M374" t="s">
+      <c r="M374">
+        <v>0</v>
+      </c>
+      <c r="N374" t="s">
         <v>1280</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>127</v>
       </c>
@@ -21110,11 +22237,14 @@
       <c r="L375" t="s">
         <v>31</v>
       </c>
-      <c r="M375" t="s">
+      <c r="M375">
+        <v>0</v>
+      </c>
+      <c r="N375" t="s">
         <v>1283</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>1183</v>
       </c>
@@ -21151,11 +22281,14 @@
       <c r="L376" t="s">
         <v>23</v>
       </c>
-      <c r="M376" t="s">
+      <c r="M376">
+        <v>0</v>
+      </c>
+      <c r="N376" t="s">
         <v>1286</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>463</v>
       </c>
@@ -21192,11 +22325,14 @@
       <c r="L377" t="s">
         <v>31</v>
       </c>
-      <c r="M377" t="s">
+      <c r="M377">
+        <v>0</v>
+      </c>
+      <c r="N377" t="s">
         <v>1288</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>1183</v>
       </c>
@@ -21233,11 +22369,14 @@
       <c r="L378" t="s">
         <v>23</v>
       </c>
-      <c r="M378" t="s">
+      <c r="M378">
+        <v>0</v>
+      </c>
+      <c r="N378" t="s">
         <v>1291</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>1183</v>
       </c>
@@ -21274,11 +22413,14 @@
       <c r="L379" t="s">
         <v>23</v>
       </c>
-      <c r="M379" t="s">
+      <c r="M379">
+        <v>0</v>
+      </c>
+      <c r="N379" t="s">
         <v>1294</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>63</v>
       </c>
@@ -21315,11 +22457,14 @@
       <c r="L380" t="s">
         <v>23</v>
       </c>
-      <c r="M380" t="s">
+      <c r="M380">
+        <v>0</v>
+      </c>
+      <c r="N380" t="s">
         <v>1296</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>1297</v>
       </c>
@@ -21356,11 +22501,14 @@
       <c r="L381" t="s">
         <v>31</v>
       </c>
-      <c r="M381" t="s">
+      <c r="M381">
+        <v>0</v>
+      </c>
+      <c r="N381" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>820</v>
       </c>
@@ -21397,11 +22545,14 @@
       <c r="L382" t="s">
         <v>31</v>
       </c>
-      <c r="M382" t="s">
+      <c r="M382">
+        <v>0</v>
+      </c>
+      <c r="N382" t="s">
         <v>1303</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>820</v>
       </c>
@@ -21438,11 +22589,14 @@
       <c r="L383" t="s">
         <v>31</v>
       </c>
-      <c r="M383" t="s">
+      <c r="M383">
+        <v>1</v>
+      </c>
+      <c r="N383" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>820</v>
       </c>
@@ -21479,11 +22633,14 @@
       <c r="L384" t="s">
         <v>31</v>
       </c>
-      <c r="M384" t="s">
+      <c r="M384">
+        <v>0</v>
+      </c>
+      <c r="N384" t="s">
         <v>1308</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>33</v>
       </c>
@@ -21520,11 +22677,14 @@
       <c r="L385" t="s">
         <v>31</v>
       </c>
-      <c r="M385" t="s">
+      <c r="M385">
+        <v>0</v>
+      </c>
+      <c r="N385" t="s">
         <v>1311</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>91</v>
       </c>
@@ -21561,11 +22721,14 @@
       <c r="L386" t="s">
         <v>31</v>
       </c>
-      <c r="M386" t="s">
+      <c r="M386">
+        <v>0</v>
+      </c>
+      <c r="N386" t="s">
         <v>1313</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>1183</v>
       </c>
@@ -21602,11 +22765,14 @@
       <c r="L387" t="s">
         <v>23</v>
       </c>
-      <c r="M387" t="s">
+      <c r="M387">
+        <v>0</v>
+      </c>
+      <c r="N387" t="s">
         <v>1316</v>
       </c>
     </row>
-    <row r="388" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>80</v>
       </c>
@@ -21643,11 +22809,14 @@
       <c r="L388" t="s">
         <v>31</v>
       </c>
-      <c r="M388" t="s">
+      <c r="M388">
+        <v>0</v>
+      </c>
+      <c r="N388" t="s">
         <v>1319</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>178</v>
       </c>
@@ -21684,11 +22853,14 @@
       <c r="L389" t="s">
         <v>31</v>
       </c>
-      <c r="M389" t="s">
+      <c r="M389">
+        <v>0</v>
+      </c>
+      <c r="N389" t="s">
         <v>1321</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>169</v>
       </c>
@@ -21725,11 +22897,14 @@
       <c r="L390" t="s">
         <v>31</v>
       </c>
-      <c r="M390" t="s">
+      <c r="M390">
+        <v>1</v>
+      </c>
+      <c r="N390" t="s">
         <v>1324</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>632</v>
       </c>
@@ -21766,11 +22941,14 @@
       <c r="L391" t="s">
         <v>31</v>
       </c>
-      <c r="M391" t="s">
+      <c r="M391">
+        <v>0</v>
+      </c>
+      <c r="N391" t="s">
         <v>1326</v>
       </c>
     </row>
-    <row r="392" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>428</v>
       </c>
@@ -21807,11 +22985,14 @@
       <c r="L392" t="s">
         <v>31</v>
       </c>
-      <c r="M392" t="s">
+      <c r="M392">
+        <v>0</v>
+      </c>
+      <c r="N392" t="s">
         <v>1329</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>820</v>
       </c>
@@ -21848,11 +23029,14 @@
       <c r="L393" t="s">
         <v>31</v>
       </c>
-      <c r="M393" t="s">
+      <c r="M393">
+        <v>0</v>
+      </c>
+      <c r="N393" t="s">
         <v>1332</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>33</v>
       </c>
@@ -21889,11 +23073,14 @@
       <c r="L394" t="s">
         <v>31</v>
       </c>
-      <c r="M394" t="s">
+      <c r="M394">
+        <v>0</v>
+      </c>
+      <c r="N394" t="s">
         <v>1335</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>33</v>
       </c>
@@ -21930,11 +23117,14 @@
       <c r="L395" t="s">
         <v>31</v>
       </c>
-      <c r="M395" t="s">
+      <c r="M395">
+        <v>0</v>
+      </c>
+      <c r="N395" t="s">
         <v>1338</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>33</v>
       </c>
@@ -21971,11 +23161,14 @@
       <c r="L396" t="s">
         <v>31</v>
       </c>
-      <c r="M396" t="s">
+      <c r="M396">
+        <v>0</v>
+      </c>
+      <c r="N396" t="s">
         <v>1341</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>428</v>
       </c>
@@ -22012,11 +23205,14 @@
       <c r="L397" t="s">
         <v>31</v>
       </c>
-      <c r="M397" t="s">
+      <c r="M397">
+        <v>0</v>
+      </c>
+      <c r="N397" t="s">
         <v>1344</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>33</v>
       </c>
@@ -22053,11 +23249,14 @@
       <c r="L398" t="s">
         <v>31</v>
       </c>
-      <c r="M398" t="s">
+      <c r="M398">
+        <v>0</v>
+      </c>
+      <c r="N398" t="s">
         <v>1347</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>1348</v>
       </c>
@@ -22094,11 +23293,14 @@
       <c r="L399" t="s">
         <v>23</v>
       </c>
-      <c r="M399" t="s">
+      <c r="M399">
+        <v>0</v>
+      </c>
+      <c r="N399" t="s">
         <v>1350</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>25</v>
       </c>
@@ -22135,11 +23337,14 @@
       <c r="L400" t="s">
         <v>31</v>
       </c>
-      <c r="M400" t="s">
+      <c r="M400">
+        <v>0</v>
+      </c>
+      <c r="N400" t="s">
         <v>1353</v>
       </c>
     </row>
-    <row r="401" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>25</v>
       </c>
@@ -22176,11 +23381,14 @@
       <c r="L401" t="s">
         <v>31</v>
       </c>
-      <c r="M401" t="s">
+      <c r="M401">
+        <v>0</v>
+      </c>
+      <c r="N401" t="s">
         <v>1355</v>
       </c>
     </row>
-    <row r="402" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>25</v>
       </c>
@@ -22217,11 +23425,14 @@
       <c r="L402" t="s">
         <v>31</v>
       </c>
-      <c r="M402" t="s">
+      <c r="M402">
+        <v>0</v>
+      </c>
+      <c r="N402" t="s">
         <v>1358</v>
       </c>
     </row>
-    <row r="403" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>169</v>
       </c>
@@ -22258,11 +23469,14 @@
       <c r="L403" t="s">
         <v>23</v>
       </c>
-      <c r="M403" t="s">
+      <c r="M403">
+        <v>0</v>
+      </c>
+      <c r="N403" t="s">
         <v>1360</v>
       </c>
     </row>
-    <row r="404" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>197</v>
       </c>
@@ -22299,11 +23513,14 @@
       <c r="L404" t="s">
         <v>31</v>
       </c>
-      <c r="M404" t="s">
+      <c r="M404">
+        <v>1</v>
+      </c>
+      <c r="N404" t="s">
         <v>1362</v>
       </c>
     </row>
-    <row r="405" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>91</v>
       </c>
@@ -22340,11 +23557,14 @@
       <c r="L405" t="s">
         <v>31</v>
       </c>
-      <c r="M405" t="s">
+      <c r="M405">
+        <v>0</v>
+      </c>
+      <c r="N405" t="s">
         <v>1364</v>
       </c>
     </row>
-    <row r="406" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>1183</v>
       </c>
@@ -22381,11 +23601,14 @@
       <c r="L406" t="s">
         <v>23</v>
       </c>
-      <c r="M406" t="s">
+      <c r="M406">
+        <v>0</v>
+      </c>
+      <c r="N406" t="s">
         <v>1367</v>
       </c>
     </row>
-    <row r="407" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>338</v>
       </c>
@@ -22422,11 +23645,14 @@
       <c r="L407" t="s">
         <v>31</v>
       </c>
-      <c r="M407" t="s">
+      <c r="M407">
+        <v>0</v>
+      </c>
+      <c r="N407" t="s">
         <v>1370</v>
       </c>
     </row>
-    <row r="408" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>927</v>
       </c>
@@ -22463,11 +23689,14 @@
       <c r="L408" t="s">
         <v>23</v>
       </c>
-      <c r="M408" t="s">
+      <c r="M408">
+        <v>1</v>
+      </c>
+      <c r="N408" t="s">
         <v>1372</v>
       </c>
     </row>
-    <row r="409" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>1373</v>
       </c>
@@ -22504,11 +23733,14 @@
       <c r="L409" t="s">
         <v>23</v>
       </c>
-      <c r="M409" t="s">
+      <c r="M409">
+        <v>0</v>
+      </c>
+      <c r="N409" t="s">
         <v>1376</v>
       </c>
     </row>
-    <row r="410" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>132</v>
       </c>
@@ -22545,11 +23777,14 @@
       <c r="L410" t="s">
         <v>31</v>
       </c>
-      <c r="M410" t="s">
+      <c r="M410">
+        <v>0</v>
+      </c>
+      <c r="N410" t="s">
         <v>1379</v>
       </c>
     </row>
-    <row r="411" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>132</v>
       </c>
@@ -22586,11 +23821,14 @@
       <c r="L411" t="s">
         <v>31</v>
       </c>
-      <c r="M411" t="s">
+      <c r="M411">
+        <v>0</v>
+      </c>
+      <c r="N411" t="s">
         <v>1382</v>
       </c>
     </row>
-    <row r="412" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>132</v>
       </c>
@@ -22627,11 +23865,14 @@
       <c r="L412" t="s">
         <v>31</v>
       </c>
-      <c r="M412" t="s">
+      <c r="M412">
+        <v>0</v>
+      </c>
+      <c r="N412" t="s">
         <v>1385</v>
       </c>
     </row>
-    <row r="413" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>132</v>
       </c>
@@ -22668,11 +23909,14 @@
       <c r="L413" t="s">
         <v>31</v>
       </c>
-      <c r="M413" t="s">
+      <c r="M413">
+        <v>0</v>
+      </c>
+      <c r="N413" t="s">
         <v>1388</v>
       </c>
     </row>
-    <row r="414" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>503</v>
       </c>
@@ -22709,11 +23953,14 @@
       <c r="L414" t="s">
         <v>31</v>
       </c>
-      <c r="M414" t="s">
+      <c r="M414">
+        <v>0</v>
+      </c>
+      <c r="N414" t="s">
         <v>1391</v>
       </c>
     </row>
-    <row r="415" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>91</v>
       </c>
@@ -22750,11 +23997,14 @@
       <c r="L415" t="s">
         <v>31</v>
       </c>
-      <c r="M415" t="s">
+      <c r="M415">
+        <v>0</v>
+      </c>
+      <c r="N415" t="s">
         <v>1393</v>
       </c>
     </row>
-    <row r="416" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>169</v>
       </c>
@@ -22791,11 +24041,14 @@
       <c r="L416" t="s">
         <v>23</v>
       </c>
-      <c r="M416" t="s">
+      <c r="M416">
+        <v>0</v>
+      </c>
+      <c r="N416" t="s">
         <v>1396</v>
       </c>
     </row>
-    <row r="417" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>169</v>
       </c>
@@ -22832,11 +24085,14 @@
       <c r="L417" t="s">
         <v>23</v>
       </c>
-      <c r="M417" t="s">
+      <c r="M417">
+        <v>1</v>
+      </c>
+      <c r="N417" t="s">
         <v>1399</v>
       </c>
     </row>
-    <row r="418" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>80</v>
       </c>
@@ -22873,11 +24129,14 @@
       <c r="L418" t="s">
         <v>31</v>
       </c>
-      <c r="M418" t="s">
+      <c r="M418">
+        <v>0</v>
+      </c>
+      <c r="N418" t="s">
         <v>1402</v>
       </c>
     </row>
-    <row r="419" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>241</v>
       </c>
@@ -22914,11 +24173,14 @@
       <c r="L419" t="s">
         <v>31</v>
       </c>
-      <c r="M419" t="s">
+      <c r="M419">
+        <v>0</v>
+      </c>
+      <c r="N419" t="s">
         <v>1405</v>
       </c>
     </row>
-    <row r="420" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>63</v>
       </c>
@@ -22955,11 +24217,14 @@
       <c r="L420" t="s">
         <v>31</v>
       </c>
-      <c r="M420" t="s">
+      <c r="M420">
+        <v>0</v>
+      </c>
+      <c r="N420" t="s">
         <v>1408</v>
       </c>
     </row>
-    <row r="421" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>197</v>
       </c>
@@ -22996,11 +24261,14 @@
       <c r="L421" t="s">
         <v>31</v>
       </c>
-      <c r="M421" t="s">
+      <c r="M421">
+        <v>0</v>
+      </c>
+      <c r="N421" t="s">
         <v>1411</v>
       </c>
     </row>
-    <row r="422" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>80</v>
       </c>
@@ -23037,11 +24305,14 @@
       <c r="L422" t="s">
         <v>31</v>
       </c>
-      <c r="M422" t="s">
+      <c r="M422">
+        <v>0</v>
+      </c>
+      <c r="N422" t="s">
         <v>1413</v>
       </c>
     </row>
-    <row r="423" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>1048</v>
       </c>
@@ -23078,11 +24349,14 @@
       <c r="L423" t="s">
         <v>23</v>
       </c>
-      <c r="M423" t="s">
+      <c r="M423">
+        <v>0</v>
+      </c>
+      <c r="N423" t="s">
         <v>1416</v>
       </c>
     </row>
-    <row r="424" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>106</v>
       </c>
@@ -23119,11 +24393,14 @@
       <c r="L424" t="s">
         <v>31</v>
       </c>
-      <c r="M424" t="s">
+      <c r="M424">
+        <v>0</v>
+      </c>
+      <c r="N424" t="s">
         <v>1419</v>
       </c>
     </row>
-    <row r="425" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>241</v>
       </c>
@@ -23160,11 +24437,14 @@
       <c r="L425" t="s">
         <v>31</v>
       </c>
-      <c r="M425" t="s">
+      <c r="M425">
+        <v>0</v>
+      </c>
+      <c r="N425" t="s">
         <v>1422</v>
       </c>
     </row>
-    <row r="426" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>112</v>
       </c>
@@ -23201,11 +24481,14 @@
       <c r="L426" t="s">
         <v>31</v>
       </c>
-      <c r="M426" t="s">
+      <c r="M426">
+        <v>0</v>
+      </c>
+      <c r="N426" t="s">
         <v>1425</v>
       </c>
     </row>
-    <row r="427" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>44</v>
       </c>
@@ -23242,11 +24525,14 @@
       <c r="L427" t="s">
         <v>23</v>
       </c>
-      <c r="M427" t="s">
+      <c r="M427">
+        <v>0</v>
+      </c>
+      <c r="N427" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="428" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>44</v>
       </c>
@@ -23283,11 +24569,14 @@
       <c r="L428" t="s">
         <v>23</v>
       </c>
-      <c r="M428" t="s">
+      <c r="M428">
+        <v>0</v>
+      </c>
+      <c r="N428" t="s">
         <v>1430</v>
       </c>
     </row>
-    <row r="429" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>63</v>
       </c>
@@ -23324,11 +24613,14 @@
       <c r="L429" t="s">
         <v>31</v>
       </c>
-      <c r="M429" t="s">
+      <c r="M429">
+        <v>0</v>
+      </c>
+      <c r="N429" t="s">
         <v>1434</v>
       </c>
     </row>
-    <row r="430" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>91</v>
       </c>
@@ -23365,11 +24657,14 @@
       <c r="L430" t="s">
         <v>31</v>
       </c>
-      <c r="M430" t="s">
+      <c r="M430">
+        <v>0</v>
+      </c>
+      <c r="N430" t="s">
         <v>1437</v>
       </c>
     </row>
-    <row r="431" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>91</v>
       </c>
@@ -23406,11 +24701,14 @@
       <c r="L431" t="s">
         <v>31</v>
       </c>
-      <c r="M431" t="s">
+      <c r="M431">
+        <v>0</v>
+      </c>
+      <c r="N431" t="s">
         <v>1440</v>
       </c>
     </row>
-    <row r="432" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>632</v>
       </c>
@@ -23447,11 +24745,14 @@
       <c r="L432" t="s">
         <v>31</v>
       </c>
-      <c r="M432" t="s">
+      <c r="M432">
+        <v>0</v>
+      </c>
+      <c r="N432" t="s">
         <v>1443</v>
       </c>
     </row>
-    <row r="433" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>63</v>
       </c>
@@ -23488,11 +24789,14 @@
       <c r="L433" t="s">
         <v>31</v>
       </c>
-      <c r="M433" t="s">
+      <c r="M433">
+        <v>1</v>
+      </c>
+      <c r="N433" t="s">
         <v>1447</v>
       </c>
     </row>
-    <row r="434" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>585</v>
       </c>
@@ -23529,11 +24833,14 @@
       <c r="L434" t="s">
         <v>31</v>
       </c>
-      <c r="M434" t="s">
+      <c r="M434">
+        <v>0</v>
+      </c>
+      <c r="N434" t="s">
         <v>1450</v>
       </c>
     </row>
-    <row r="435" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>463</v>
       </c>
@@ -23570,11 +24877,14 @@
       <c r="L435" t="s">
         <v>31</v>
       </c>
-      <c r="M435" t="s">
+      <c r="M435">
+        <v>0</v>
+      </c>
+      <c r="N435" t="s">
         <v>1453</v>
       </c>
     </row>
-    <row r="436" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>197</v>
       </c>
@@ -23611,11 +24921,14 @@
       <c r="L436" t="s">
         <v>31</v>
       </c>
-      <c r="M436" t="s">
+      <c r="M436">
+        <v>0</v>
+      </c>
+      <c r="N436" t="s">
         <v>1456</v>
       </c>
     </row>
-    <row r="437" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>820</v>
       </c>
@@ -23652,11 +24965,14 @@
       <c r="L437" t="s">
         <v>31</v>
       </c>
-      <c r="M437" t="s">
+      <c r="M437">
+        <v>0</v>
+      </c>
+      <c r="N437" t="s">
         <v>1459</v>
       </c>
     </row>
-    <row r="438" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>1187</v>
       </c>
@@ -23693,11 +25009,14 @@
       <c r="L438" t="s">
         <v>23</v>
       </c>
-      <c r="M438" t="s">
+      <c r="M438">
+        <v>0</v>
+      </c>
+      <c r="N438" t="s">
         <v>1461</v>
       </c>
     </row>
-    <row r="439" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>632</v>
       </c>
@@ -23734,11 +25053,14 @@
       <c r="L439" t="s">
         <v>31</v>
       </c>
-      <c r="M439" t="s">
+      <c r="M439">
+        <v>1</v>
+      </c>
+      <c r="N439" t="s">
         <v>1464</v>
       </c>
     </row>
-    <row r="440" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>241</v>
       </c>
@@ -23775,11 +25097,14 @@
       <c r="L440" t="s">
         <v>31</v>
       </c>
-      <c r="M440" t="s">
+      <c r="M440">
+        <v>0</v>
+      </c>
+      <c r="N440" t="s">
         <v>1467</v>
       </c>
     </row>
-    <row r="441" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>1348</v>
       </c>
@@ -23816,11 +25141,14 @@
       <c r="L441" t="s">
         <v>23</v>
       </c>
-      <c r="M441" t="s">
+      <c r="M441">
+        <v>0</v>
+      </c>
+      <c r="N441" t="s">
         <v>1470</v>
       </c>
     </row>
-    <row r="442" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>33</v>
       </c>
@@ -23857,11 +25185,14 @@
       <c r="L442" t="s">
         <v>31</v>
       </c>
-      <c r="M442" t="s">
+      <c r="M442">
+        <v>1</v>
+      </c>
+      <c r="N442" t="s">
         <v>1473</v>
       </c>
     </row>
-    <row r="443" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>33</v>
       </c>
@@ -23898,11 +25229,14 @@
       <c r="L443" t="s">
         <v>31</v>
       </c>
-      <c r="M443" t="s">
+      <c r="M443">
+        <v>1</v>
+      </c>
+      <c r="N443" t="s">
         <v>1476</v>
       </c>
     </row>
-    <row r="444" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>52</v>
       </c>
@@ -23939,11 +25273,14 @@
       <c r="L444" t="s">
         <v>31</v>
       </c>
-      <c r="M444" t="s">
+      <c r="M444">
+        <v>0</v>
+      </c>
+      <c r="N444" t="s">
         <v>1479</v>
       </c>
     </row>
-    <row r="445" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>1480</v>
       </c>
@@ -23980,11 +25317,14 @@
       <c r="L445" t="s">
         <v>23</v>
       </c>
-      <c r="M445" t="s">
+      <c r="M445">
+        <v>0</v>
+      </c>
+      <c r="N445" t="s">
         <v>1483</v>
       </c>
     </row>
-    <row r="446" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>1048</v>
       </c>
@@ -24021,11 +25361,14 @@
       <c r="L446" t="s">
         <v>23</v>
       </c>
-      <c r="M446" t="s">
+      <c r="M446">
+        <v>0</v>
+      </c>
+      <c r="N446" t="s">
         <v>1486</v>
       </c>
     </row>
-    <row r="447" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>138</v>
       </c>
@@ -24062,11 +25405,14 @@
       <c r="L447" t="s">
         <v>23</v>
       </c>
-      <c r="M447" t="s">
+      <c r="M447">
+        <v>1</v>
+      </c>
+      <c r="N447" t="s">
         <v>1489</v>
       </c>
     </row>
-    <row r="448" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>197</v>
       </c>
@@ -24103,11 +25449,14 @@
       <c r="L448" t="s">
         <v>31</v>
       </c>
-      <c r="M448" t="s">
+      <c r="M448">
+        <v>0</v>
+      </c>
+      <c r="N448" t="s">
         <v>1492</v>
       </c>
     </row>
-    <row r="449" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>197</v>
       </c>
@@ -24144,11 +25493,14 @@
       <c r="L449" t="s">
         <v>31</v>
       </c>
-      <c r="M449" t="s">
+      <c r="M449">
+        <v>0</v>
+      </c>
+      <c r="N449" t="s">
         <v>1495</v>
       </c>
     </row>
-    <row r="450" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>44</v>
       </c>
@@ -24185,11 +25537,14 @@
       <c r="L450" t="s">
         <v>23</v>
       </c>
-      <c r="M450" t="s">
+      <c r="M450">
+        <v>0</v>
+      </c>
+      <c r="N450" t="s">
         <v>1497</v>
       </c>
     </row>
-    <row r="451" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>205</v>
       </c>
@@ -24226,11 +25581,14 @@
       <c r="L451" t="s">
         <v>31</v>
       </c>
-      <c r="M451" t="s">
+      <c r="M451">
+        <v>0</v>
+      </c>
+      <c r="N451" t="s">
         <v>1500</v>
       </c>
     </row>
-    <row r="452" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>903</v>
       </c>
@@ -24267,11 +25625,14 @@
       <c r="L452" t="s">
         <v>31</v>
       </c>
-      <c r="M452" t="s">
+      <c r="M452">
+        <v>1</v>
+      </c>
+      <c r="N452" t="s">
         <v>1503</v>
       </c>
     </row>
-    <row r="453" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>44</v>
       </c>
@@ -24308,11 +25669,14 @@
       <c r="L453" t="s">
         <v>23</v>
       </c>
-      <c r="M453" t="s">
+      <c r="M453">
+        <v>0</v>
+      </c>
+      <c r="N453" t="s">
         <v>1506</v>
       </c>
     </row>
-    <row r="454" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>63</v>
       </c>
@@ -24349,11 +25713,14 @@
       <c r="L454" t="s">
         <v>31</v>
       </c>
-      <c r="M454" t="s">
+      <c r="M454">
+        <v>0</v>
+      </c>
+      <c r="N454" t="s">
         <v>1509</v>
       </c>
     </row>
-    <row r="455" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>1064</v>
       </c>
@@ -24390,11 +25757,14 @@
       <c r="L455" t="s">
         <v>31</v>
       </c>
-      <c r="M455" t="s">
+      <c r="M455">
+        <v>0</v>
+      </c>
+      <c r="N455" t="s">
         <v>1511</v>
       </c>
     </row>
-    <row r="456" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>80</v>
       </c>
@@ -24431,11 +25801,14 @@
       <c r="L456" t="s">
         <v>31</v>
       </c>
-      <c r="M456" t="s">
+      <c r="M456">
+        <v>0</v>
+      </c>
+      <c r="N456" t="s">
         <v>1513</v>
       </c>
     </row>
-    <row r="457" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>1514</v>
       </c>
@@ -24472,11 +25845,14 @@
       <c r="L457" t="s">
         <v>31</v>
       </c>
-      <c r="M457" t="s">
+      <c r="M457">
+        <v>0</v>
+      </c>
+      <c r="N457" t="s">
         <v>1517</v>
       </c>
     </row>
-    <row r="458" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>229</v>
       </c>
@@ -24513,11 +25889,14 @@
       <c r="L458" t="s">
         <v>31</v>
       </c>
-      <c r="M458" t="s">
+      <c r="M458">
+        <v>0</v>
+      </c>
+      <c r="N458" t="s">
         <v>1520</v>
       </c>
     </row>
-    <row r="459" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>1155</v>
       </c>
@@ -24554,11 +25933,14 @@
       <c r="L459" t="s">
         <v>31</v>
       </c>
-      <c r="M459" t="s">
+      <c r="M459">
+        <v>1</v>
+      </c>
+      <c r="N459" t="s">
         <v>1522</v>
       </c>
     </row>
-    <row r="460" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>1155</v>
       </c>
@@ -24595,11 +25977,14 @@
       <c r="L460" t="s">
         <v>31</v>
       </c>
-      <c r="M460" t="s">
+      <c r="M460">
+        <v>1</v>
+      </c>
+      <c r="N460" t="s">
         <v>1525</v>
       </c>
     </row>
-    <row r="461" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>1526</v>
       </c>
@@ -24636,11 +26021,14 @@
       <c r="L461" t="s">
         <v>31</v>
       </c>
-      <c r="M461" t="s">
+      <c r="M461">
+        <v>0</v>
+      </c>
+      <c r="N461" t="s">
         <v>1531</v>
       </c>
     </row>
-    <row r="462" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>106</v>
       </c>
@@ -24677,11 +26065,14 @@
       <c r="L462" t="s">
         <v>31</v>
       </c>
-      <c r="M462" t="s">
+      <c r="M462">
+        <v>0</v>
+      </c>
+      <c r="N462" t="s">
         <v>1533</v>
       </c>
     </row>
-    <row r="463" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>1183</v>
       </c>
@@ -24718,11 +26109,14 @@
       <c r="L463" t="s">
         <v>23</v>
       </c>
-      <c r="M463" t="s">
+      <c r="M463">
+        <v>0</v>
+      </c>
+      <c r="N463" t="s">
         <v>1536</v>
       </c>
     </row>
-    <row r="464" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>258</v>
       </c>
@@ -24759,11 +26153,14 @@
       <c r="L464" t="s">
         <v>31</v>
       </c>
-      <c r="M464" t="s">
+      <c r="M464">
+        <v>1</v>
+      </c>
+      <c r="N464" t="s">
         <v>1538</v>
       </c>
     </row>
-    <row r="465" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>13</v>
       </c>
@@ -24800,11 +26197,14 @@
       <c r="L465" t="s">
         <v>23</v>
       </c>
-      <c r="M465" t="s">
+      <c r="M465">
+        <v>0</v>
+      </c>
+      <c r="N465" t="s">
         <v>1541</v>
       </c>
     </row>
-    <row r="466" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>127</v>
       </c>
@@ -24841,11 +26241,14 @@
       <c r="L466" t="s">
         <v>31</v>
       </c>
-      <c r="M466" t="s">
+      <c r="M466">
+        <v>0</v>
+      </c>
+      <c r="N466" t="s">
         <v>1544</v>
       </c>
     </row>
-    <row r="467" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>63</v>
       </c>
@@ -24882,11 +26285,14 @@
       <c r="L467" t="s">
         <v>31</v>
       </c>
-      <c r="M467" t="s">
+      <c r="M467">
+        <v>1</v>
+      </c>
+      <c r="N467" t="s">
         <v>1546</v>
       </c>
     </row>
-    <row r="468" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>927</v>
       </c>
@@ -24923,11 +26329,14 @@
       <c r="L468" t="s">
         <v>23</v>
       </c>
-      <c r="M468" t="s">
+      <c r="M468">
+        <v>1</v>
+      </c>
+      <c r="N468" t="s">
         <v>1548</v>
       </c>
     </row>
-    <row r="469" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>205</v>
       </c>
@@ -24964,11 +26373,14 @@
       <c r="L469" t="s">
         <v>31</v>
       </c>
-      <c r="M469" t="s">
+      <c r="M469">
+        <v>0</v>
+      </c>
+      <c r="N469" t="s">
         <v>1552</v>
       </c>
     </row>
-    <row r="470" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>169</v>
       </c>
@@ -25005,11 +26417,14 @@
       <c r="L470" t="s">
         <v>23</v>
       </c>
-      <c r="M470" t="s">
+      <c r="M470">
+        <v>0</v>
+      </c>
+      <c r="N470" t="s">
         <v>1555</v>
       </c>
     </row>
-    <row r="471" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>512</v>
       </c>
@@ -25046,11 +26461,14 @@
       <c r="L471" t="s">
         <v>31</v>
       </c>
-      <c r="M471" t="s">
+      <c r="M471">
+        <v>0</v>
+      </c>
+      <c r="N471" t="s">
         <v>1558</v>
       </c>
     </row>
-    <row r="472" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>197</v>
       </c>
@@ -25087,11 +26505,14 @@
       <c r="L472" t="s">
         <v>31</v>
       </c>
-      <c r="M472" t="s">
+      <c r="M472">
+        <v>0</v>
+      </c>
+      <c r="N472" t="s">
         <v>1561</v>
       </c>
     </row>
-    <row r="473" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>258</v>
       </c>
@@ -25128,11 +26549,14 @@
       <c r="L473" t="s">
         <v>31</v>
       </c>
-      <c r="M473" t="s">
+      <c r="M473">
+        <v>1</v>
+      </c>
+      <c r="N473" t="s">
         <v>1563</v>
       </c>
     </row>
-    <row r="474" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>44</v>
       </c>
@@ -25169,11 +26593,14 @@
       <c r="L474" t="s">
         <v>23</v>
       </c>
-      <c r="M474" t="s">
+      <c r="M474">
+        <v>0</v>
+      </c>
+      <c r="N474" t="s">
         <v>1566</v>
       </c>
     </row>
-    <row r="475" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>1187</v>
       </c>
@@ -25210,11 +26637,14 @@
       <c r="L475" t="s">
         <v>23</v>
       </c>
-      <c r="M475" t="s">
+      <c r="M475">
+        <v>0</v>
+      </c>
+      <c r="N475" t="s">
         <v>1569</v>
       </c>
     </row>
-    <row r="476" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>467</v>
       </c>
@@ -25251,11 +26681,14 @@
       <c r="L476" t="s">
         <v>31</v>
       </c>
-      <c r="M476" t="s">
+      <c r="M476">
+        <v>0</v>
+      </c>
+      <c r="N476" t="s">
         <v>1572</v>
       </c>
     </row>
-    <row r="477" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>229</v>
       </c>
@@ -25292,11 +26725,14 @@
       <c r="L477" t="s">
         <v>31</v>
       </c>
-      <c r="M477" t="s">
+      <c r="M477">
+        <v>0</v>
+      </c>
+      <c r="N477" t="s">
         <v>1576</v>
       </c>
     </row>
-    <row r="478" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>91</v>
       </c>
@@ -25333,11 +26769,14 @@
       <c r="L478" t="s">
         <v>31</v>
       </c>
-      <c r="M478" t="s">
+      <c r="M478">
+        <v>0</v>
+      </c>
+      <c r="N478" t="s">
         <v>1580</v>
       </c>
     </row>
-    <row r="479" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>91</v>
       </c>
@@ -25374,11 +26813,14 @@
       <c r="L479" t="s">
         <v>31</v>
       </c>
-      <c r="M479" t="s">
+      <c r="M479">
+        <v>0</v>
+      </c>
+      <c r="N479" t="s">
         <v>1582</v>
       </c>
     </row>
-    <row r="480" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>91</v>
       </c>
@@ -25415,11 +26857,14 @@
       <c r="L480" t="s">
         <v>31</v>
       </c>
-      <c r="M480" t="s">
+      <c r="M480">
+        <v>0</v>
+      </c>
+      <c r="N480" t="s">
         <v>1585</v>
       </c>
     </row>
-    <row r="481" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>85</v>
       </c>
@@ -25456,11 +26901,14 @@
       <c r="L481" t="s">
         <v>31</v>
       </c>
-      <c r="M481" t="s">
+      <c r="M481">
+        <v>1</v>
+      </c>
+      <c r="N481" t="s">
         <v>1586</v>
       </c>
     </row>
-    <row r="482" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>258</v>
       </c>
@@ -25497,11 +26945,14 @@
       <c r="L482" t="s">
         <v>31</v>
       </c>
-      <c r="M482" t="s">
+      <c r="M482">
+        <v>0</v>
+      </c>
+      <c r="N482" t="s">
         <v>1588</v>
       </c>
     </row>
-    <row r="483" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>80</v>
       </c>
@@ -25538,11 +26989,14 @@
       <c r="L483" t="s">
         <v>31</v>
       </c>
-      <c r="M483" t="s">
+      <c r="M483">
+        <v>0</v>
+      </c>
+      <c r="N483" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="484" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>1048</v>
       </c>
@@ -25579,11 +27033,14 @@
       <c r="L484" t="s">
         <v>23</v>
       </c>
-      <c r="M484" t="s">
+      <c r="M484">
+        <v>0</v>
+      </c>
+      <c r="N484" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="485" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>91</v>
       </c>
@@ -25620,11 +27077,14 @@
       <c r="L485" t="s">
         <v>31</v>
       </c>
-      <c r="M485" t="s">
+      <c r="M485">
+        <v>0</v>
+      </c>
+      <c r="N485" t="s">
         <v>1595</v>
       </c>
     </row>
-    <row r="486" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>220</v>
       </c>
@@ -25661,11 +27121,14 @@
       <c r="L486" t="s">
         <v>31</v>
       </c>
-      <c r="M486" t="s">
+      <c r="M486">
+        <v>1</v>
+      </c>
+      <c r="N486" t="s">
         <v>1598</v>
       </c>
     </row>
-    <row r="487" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>91</v>
       </c>
@@ -25702,11 +27165,14 @@
       <c r="L487" t="s">
         <v>31</v>
       </c>
-      <c r="M487" t="s">
+      <c r="M487">
+        <v>0</v>
+      </c>
+      <c r="N487" t="s">
         <v>1601</v>
       </c>
     </row>
-    <row r="488" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>91</v>
       </c>
@@ -25743,11 +27209,14 @@
       <c r="L488" t="s">
         <v>31</v>
       </c>
-      <c r="M488" t="s">
+      <c r="M488">
+        <v>0</v>
+      </c>
+      <c r="N488" t="s">
         <v>1603</v>
       </c>
     </row>
-    <row r="489" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>428</v>
       </c>
@@ -25784,11 +27253,14 @@
       <c r="L489" t="s">
         <v>31</v>
       </c>
-      <c r="M489" t="s">
+      <c r="M489">
+        <v>0</v>
+      </c>
+      <c r="N489" t="s">
         <v>1606</v>
       </c>
     </row>
-    <row r="490" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>127</v>
       </c>
@@ -25825,11 +27297,14 @@
       <c r="L490" t="s">
         <v>31</v>
       </c>
-      <c r="M490" t="s">
+      <c r="M490">
+        <v>1</v>
+      </c>
+      <c r="N490" t="s">
         <v>1609</v>
       </c>
     </row>
-    <row r="491" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>85</v>
       </c>
@@ -25866,11 +27341,14 @@
       <c r="L491" t="s">
         <v>31</v>
       </c>
-      <c r="M491" t="s">
+      <c r="M491">
+        <v>0</v>
+      </c>
+      <c r="N491" t="s">
         <v>1612</v>
       </c>
     </row>
-    <row r="492" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>169</v>
       </c>
@@ -25907,11 +27385,14 @@
       <c r="L492" t="s">
         <v>23</v>
       </c>
-      <c r="M492" t="s">
+      <c r="M492">
+        <v>0</v>
+      </c>
+      <c r="N492" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="493" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>316</v>
       </c>
@@ -25948,11 +27429,14 @@
       <c r="L493" t="s">
         <v>23</v>
       </c>
-      <c r="M493" t="s">
+      <c r="M493">
+        <v>0</v>
+      </c>
+      <c r="N493" t="s">
         <v>1618</v>
       </c>
     </row>
-    <row r="494" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>428</v>
       </c>
@@ -25989,11 +27473,14 @@
       <c r="L494" t="s">
         <v>31</v>
       </c>
-      <c r="M494" t="s">
+      <c r="M494">
+        <v>0</v>
+      </c>
+      <c r="N494" t="s">
         <v>1621</v>
       </c>
     </row>
-    <row r="495" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>169</v>
       </c>
@@ -26030,11 +27517,14 @@
       <c r="L495" t="s">
         <v>31</v>
       </c>
-      <c r="M495" t="s">
+      <c r="M495">
+        <v>0</v>
+      </c>
+      <c r="N495" t="s">
         <v>1624</v>
       </c>
     </row>
-    <row r="496" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>127</v>
       </c>
@@ -26071,11 +27561,14 @@
       <c r="L496" t="s">
         <v>31</v>
       </c>
-      <c r="M496" t="s">
+      <c r="M496">
+        <v>0</v>
+      </c>
+      <c r="N496" t="s">
         <v>1628</v>
       </c>
     </row>
-    <row r="497" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>80</v>
       </c>
@@ -26112,11 +27605,14 @@
       <c r="L497" t="s">
         <v>31</v>
       </c>
-      <c r="M497" t="s">
+      <c r="M497">
+        <v>0</v>
+      </c>
+      <c r="N497" t="s">
         <v>1631</v>
       </c>
     </row>
-    <row r="498" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>820</v>
       </c>
@@ -26153,11 +27649,14 @@
       <c r="L498" t="s">
         <v>31</v>
       </c>
-      <c r="M498" t="s">
+      <c r="M498">
+        <v>0</v>
+      </c>
+      <c r="N498" t="s">
         <v>1634</v>
       </c>
     </row>
-    <row r="499" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>307</v>
       </c>
@@ -26194,11 +27693,14 @@
       <c r="L499" t="s">
         <v>31</v>
       </c>
-      <c r="M499" t="s">
+      <c r="M499">
+        <v>0</v>
+      </c>
+      <c r="N499" t="s">
         <v>1637</v>
       </c>
     </row>
-    <row r="500" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>13</v>
       </c>
@@ -26235,11 +27737,14 @@
       <c r="L500" t="s">
         <v>23</v>
       </c>
-      <c r="M500" t="s">
+      <c r="M500">
+        <v>0</v>
+      </c>
+      <c r="N500" t="s">
         <v>1640</v>
       </c>
     </row>
-    <row r="501" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A501" t="s">
         <v>428</v>
       </c>
@@ -26276,11 +27781,14 @@
       <c r="L501" t="s">
         <v>31</v>
       </c>
-      <c r="M501" t="s">
+      <c r="M501">
+        <v>0</v>
+      </c>
+      <c r="N501" t="s">
         <v>1642</v>
       </c>
     </row>
-    <row r="502" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A502" t="s">
         <v>197</v>
       </c>
@@ -26317,11 +27825,14 @@
       <c r="L502" t="s">
         <v>31</v>
       </c>
-      <c r="M502" t="s">
+      <c r="M502">
+        <v>0</v>
+      </c>
+      <c r="N502" t="s">
         <v>1645</v>
       </c>
     </row>
-    <row r="503" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A503" t="s">
         <v>197</v>
       </c>
@@ -26358,11 +27869,14 @@
       <c r="L503" t="s">
         <v>31</v>
       </c>
-      <c r="M503" t="s">
+      <c r="M503">
+        <v>0</v>
+      </c>
+      <c r="N503" t="s">
         <v>1648</v>
       </c>
     </row>
-    <row r="504" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A504" t="s">
         <v>178</v>
       </c>
@@ -26399,11 +27913,14 @@
       <c r="L504" t="s">
         <v>31</v>
       </c>
-      <c r="M504" t="s">
+      <c r="M504">
+        <v>0</v>
+      </c>
+      <c r="N504" t="s">
         <v>1650</v>
       </c>
     </row>
-    <row r="505" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A505" t="s">
         <v>138</v>
       </c>
@@ -26440,11 +27957,14 @@
       <c r="L505" t="s">
         <v>23</v>
       </c>
-      <c r="M505" t="s">
+      <c r="M505">
+        <v>1</v>
+      </c>
+      <c r="N505" t="s">
         <v>1652</v>
       </c>
     </row>
-    <row r="506" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A506" t="s">
         <v>13</v>
       </c>
@@ -26481,11 +28001,14 @@
       <c r="L506" t="s">
         <v>23</v>
       </c>
-      <c r="M506" t="s">
+      <c r="M506">
+        <v>0</v>
+      </c>
+      <c r="N506" t="s">
         <v>1654</v>
       </c>
     </row>
-    <row r="507" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A507" t="s">
         <v>613</v>
       </c>
@@ -26522,11 +28045,14 @@
       <c r="L507" t="s">
         <v>31</v>
       </c>
-      <c r="M507" t="s">
+      <c r="M507">
+        <v>1</v>
+      </c>
+      <c r="N507" t="s">
         <v>1656</v>
       </c>
     </row>
-    <row r="508" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A508" t="s">
         <v>820</v>
       </c>
@@ -26563,11 +28089,14 @@
       <c r="L508" t="s">
         <v>31</v>
       </c>
-      <c r="M508" t="s">
+      <c r="M508">
+        <v>0</v>
+      </c>
+      <c r="N508" t="s">
         <v>1659</v>
       </c>
     </row>
-    <row r="509" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A509" t="s">
         <v>169</v>
       </c>
@@ -26604,11 +28133,14 @@
       <c r="L509" t="s">
         <v>31</v>
       </c>
-      <c r="M509" t="s">
+      <c r="M509">
+        <v>0</v>
+      </c>
+      <c r="N509" t="s">
         <v>1662</v>
       </c>
     </row>
-    <row r="510" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A510" t="s">
         <v>241</v>
       </c>
@@ -26645,11 +28177,14 @@
       <c r="L510" t="s">
         <v>31</v>
       </c>
-      <c r="M510" t="s">
+      <c r="M510">
+        <v>1</v>
+      </c>
+      <c r="N510" t="s">
         <v>1665</v>
       </c>
     </row>
-    <row r="511" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A511" t="s">
         <v>316</v>
       </c>
@@ -26686,11 +28221,14 @@
       <c r="L511" t="s">
         <v>23</v>
       </c>
-      <c r="M511" t="s">
+      <c r="M511">
+        <v>0</v>
+      </c>
+      <c r="N511" t="s">
         <v>1667</v>
       </c>
     </row>
-    <row r="512" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A512" t="s">
         <v>820</v>
       </c>
@@ -26727,11 +28265,14 @@
       <c r="L512" t="s">
         <v>31</v>
       </c>
-      <c r="M512" t="s">
+      <c r="M512">
+        <v>0</v>
+      </c>
+      <c r="N512" t="s">
         <v>1670</v>
       </c>
     </row>
-    <row r="513" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A513" t="s">
         <v>80</v>
       </c>
@@ -26768,11 +28309,14 @@
       <c r="L513" t="s">
         <v>31</v>
       </c>
-      <c r="M513" t="s">
+      <c r="M513">
+        <v>0</v>
+      </c>
+      <c r="N513" t="s">
         <v>1675</v>
       </c>
     </row>
-    <row r="514" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A514" t="s">
         <v>1373</v>
       </c>
@@ -26809,11 +28353,14 @@
       <c r="L514" t="s">
         <v>23</v>
       </c>
-      <c r="M514" t="s">
+      <c r="M514">
+        <v>0</v>
+      </c>
+      <c r="N514" t="s">
         <v>1677</v>
       </c>
     </row>
-    <row r="515" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A515" t="s">
         <v>316</v>
       </c>
@@ -26850,11 +28397,14 @@
       <c r="L515" t="s">
         <v>23</v>
       </c>
-      <c r="M515" t="s">
+      <c r="M515">
+        <v>0</v>
+      </c>
+      <c r="N515" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="516" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A516" t="s">
         <v>1048</v>
       </c>
@@ -26891,11 +28441,14 @@
       <c r="L516" t="s">
         <v>23</v>
       </c>
-      <c r="M516" t="s">
+      <c r="M516">
+        <v>0</v>
+      </c>
+      <c r="N516" t="s">
         <v>1682</v>
       </c>
     </row>
-    <row r="517" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A517" t="s">
         <v>316</v>
       </c>
@@ -26932,11 +28485,14 @@
       <c r="L517" t="s">
         <v>23</v>
       </c>
-      <c r="M517" t="s">
+      <c r="M517">
+        <v>0</v>
+      </c>
+      <c r="N517" t="s">
         <v>1684</v>
       </c>
     </row>
-    <row r="518" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A518" t="s">
         <v>205</v>
       </c>
@@ -26973,11 +28529,14 @@
       <c r="L518" t="s">
         <v>31</v>
       </c>
-      <c r="M518" t="s">
+      <c r="M518">
+        <v>0</v>
+      </c>
+      <c r="N518" t="s">
         <v>1688</v>
       </c>
     </row>
-    <row r="519" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A519" t="s">
         <v>127</v>
       </c>
@@ -27014,11 +28573,14 @@
       <c r="L519" t="s">
         <v>31</v>
       </c>
-      <c r="M519" t="s">
+      <c r="M519">
+        <v>0</v>
+      </c>
+      <c r="N519" t="s">
         <v>1691</v>
       </c>
     </row>
-    <row r="520" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A520" t="s">
         <v>632</v>
       </c>
@@ -27055,11 +28617,14 @@
       <c r="L520" t="s">
         <v>31</v>
       </c>
-      <c r="M520" t="s">
+      <c r="M520">
+        <v>1</v>
+      </c>
+      <c r="N520" t="s">
         <v>1693</v>
       </c>
     </row>
-    <row r="521" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A521" t="s">
         <v>52</v>
       </c>
@@ -27096,11 +28661,14 @@
       <c r="L521" t="s">
         <v>31</v>
       </c>
-      <c r="M521" t="s">
+      <c r="M521">
+        <v>0</v>
+      </c>
+      <c r="N521" t="s">
         <v>1696</v>
       </c>
     </row>
-    <row r="522" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A522" t="s">
         <v>169</v>
       </c>
@@ -27137,11 +28705,14 @@
       <c r="L522" t="s">
         <v>31</v>
       </c>
-      <c r="M522" t="s">
+      <c r="M522">
+        <v>1</v>
+      </c>
+      <c r="N522" t="s">
         <v>1698</v>
       </c>
     </row>
-    <row r="523" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A523" t="s">
         <v>316</v>
       </c>
@@ -27178,11 +28749,14 @@
       <c r="L523" t="s">
         <v>23</v>
       </c>
-      <c r="M523" t="s">
+      <c r="M523">
+        <v>0</v>
+      </c>
+      <c r="N523" t="s">
         <v>1701</v>
       </c>
     </row>
-    <row r="524" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A524" t="s">
         <v>609</v>
       </c>
@@ -27219,11 +28793,14 @@
       <c r="L524" t="s">
         <v>31</v>
       </c>
-      <c r="M524" t="s">
+      <c r="M524">
+        <v>0</v>
+      </c>
+      <c r="N524" t="s">
         <v>1703</v>
       </c>
     </row>
-    <row r="525" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A525" t="s">
         <v>85</v>
       </c>
@@ -27260,11 +28837,14 @@
       <c r="L525" t="s">
         <v>31</v>
       </c>
-      <c r="M525" t="s">
+      <c r="M525">
+        <v>0</v>
+      </c>
+      <c r="N525" t="s">
         <v>1706</v>
       </c>
     </row>
-    <row r="526" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A526" t="s">
         <v>205</v>
       </c>
@@ -27301,11 +28881,14 @@
       <c r="L526" t="s">
         <v>31</v>
       </c>
-      <c r="M526" t="s">
+      <c r="M526">
+        <v>1</v>
+      </c>
+      <c r="N526" t="s">
         <v>1709</v>
       </c>
     </row>
-    <row r="527" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A527" t="s">
         <v>57</v>
       </c>
@@ -27342,11 +28925,14 @@
       <c r="L527" t="s">
         <v>31</v>
       </c>
-      <c r="M527" t="s">
+      <c r="M527">
+        <v>1</v>
+      </c>
+      <c r="N527" t="s">
         <v>1712</v>
       </c>
     </row>
-    <row r="528" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A528" t="s">
         <v>57</v>
       </c>
@@ -27383,11 +28969,14 @@
       <c r="L528" t="s">
         <v>31</v>
       </c>
-      <c r="M528" t="s">
+      <c r="M528">
+        <v>0</v>
+      </c>
+      <c r="N528" t="s">
         <v>1715</v>
       </c>
     </row>
-    <row r="529" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A529" t="s">
         <v>307</v>
       </c>
@@ -27424,11 +29013,14 @@
       <c r="L529" t="s">
         <v>31</v>
       </c>
-      <c r="M529" t="s">
+      <c r="M529">
+        <v>1</v>
+      </c>
+      <c r="N529" t="s">
         <v>1718</v>
       </c>
     </row>
-    <row r="530" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A530" t="s">
         <v>632</v>
       </c>
@@ -27465,11 +29057,14 @@
       <c r="L530" t="s">
         <v>31</v>
       </c>
-      <c r="M530" t="s">
+      <c r="M530">
+        <v>0</v>
+      </c>
+      <c r="N530" t="s">
         <v>1720</v>
       </c>
     </row>
-    <row r="531" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A531" t="s">
         <v>80</v>
       </c>
@@ -27506,11 +29101,14 @@
       <c r="L531" t="s">
         <v>31</v>
       </c>
-      <c r="M531" t="s">
+      <c r="M531">
+        <v>0</v>
+      </c>
+      <c r="N531" t="s">
         <v>1723</v>
       </c>
     </row>
-    <row r="532" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A532" t="s">
         <v>33</v>
       </c>
@@ -27547,11 +29145,14 @@
       <c r="L532" t="s">
         <v>31</v>
       </c>
-      <c r="M532" t="s">
+      <c r="M532">
+        <v>0</v>
+      </c>
+      <c r="N532" t="s">
         <v>1726</v>
       </c>
     </row>
-    <row r="533" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A533" t="s">
         <v>91</v>
       </c>
@@ -27588,11 +29189,14 @@
       <c r="L533" t="s">
         <v>31</v>
       </c>
-      <c r="M533" t="s">
+      <c r="M533">
+        <v>0</v>
+      </c>
+      <c r="N533" t="s">
         <v>1728</v>
       </c>
     </row>
-    <row r="534" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A534" t="s">
         <v>307</v>
       </c>
@@ -27629,11 +29233,14 @@
       <c r="L534" t="s">
         <v>31</v>
       </c>
-      <c r="M534" t="s">
+      <c r="M534">
+        <v>1</v>
+      </c>
+      <c r="N534" t="s">
         <v>1731</v>
       </c>
     </row>
-    <row r="535" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A535" t="s">
         <v>33</v>
       </c>
@@ -27670,11 +29277,14 @@
       <c r="L535" t="s">
         <v>31</v>
       </c>
-      <c r="M535" t="s">
+      <c r="M535">
+        <v>1</v>
+      </c>
+      <c r="N535" t="s">
         <v>1734</v>
       </c>
     </row>
-    <row r="536" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A536" t="s">
         <v>91</v>
       </c>
@@ -27711,11 +29321,14 @@
       <c r="L536" t="s">
         <v>31</v>
       </c>
-      <c r="M536" t="s">
+      <c r="M536">
+        <v>1</v>
+      </c>
+      <c r="N536" t="s">
         <v>1736</v>
       </c>
     </row>
-    <row r="537" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A537" t="s">
         <v>91</v>
       </c>
@@ -27752,11 +29365,14 @@
       <c r="L537" t="s">
         <v>31</v>
       </c>
-      <c r="M537" t="s">
+      <c r="M537">
+        <v>1</v>
+      </c>
+      <c r="N537" t="s">
         <v>1739</v>
       </c>
     </row>
-    <row r="538" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A538" t="s">
         <v>63</v>
       </c>
@@ -27793,11 +29409,14 @@
       <c r="L538" t="s">
         <v>31</v>
       </c>
-      <c r="M538" t="s">
+      <c r="M538">
+        <v>0</v>
+      </c>
+      <c r="N538" t="s">
         <v>1742</v>
       </c>
     </row>
-    <row r="539" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A539" t="s">
         <v>138</v>
       </c>
@@ -27834,11 +29453,14 @@
       <c r="L539" t="s">
         <v>23</v>
       </c>
-      <c r="M539" t="s">
+      <c r="M539">
+        <v>1</v>
+      </c>
+      <c r="N539" t="s">
         <v>1745</v>
       </c>
     </row>
-    <row r="540" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A540" t="s">
         <v>205</v>
       </c>
@@ -27875,11 +29497,14 @@
       <c r="L540" t="s">
         <v>31</v>
       </c>
-      <c r="M540" t="s">
+      <c r="M540">
+        <v>0</v>
+      </c>
+      <c r="N540" t="s">
         <v>1748</v>
       </c>
     </row>
-    <row r="541" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A541" t="s">
         <v>138</v>
       </c>
@@ -27916,11 +29541,14 @@
       <c r="L541" t="s">
         <v>23</v>
       </c>
-      <c r="M541" t="s">
+      <c r="M541">
+        <v>0</v>
+      </c>
+      <c r="N541" t="s">
         <v>1750</v>
       </c>
     </row>
-    <row r="542" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A542" t="s">
         <v>197</v>
       </c>
@@ -27957,11 +29585,14 @@
       <c r="L542" t="s">
         <v>31</v>
       </c>
-      <c r="M542" t="s">
+      <c r="M542">
+        <v>0</v>
+      </c>
+      <c r="N542" t="s">
         <v>1751</v>
       </c>
     </row>
-    <row r="543" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A543" t="s">
         <v>316</v>
       </c>
@@ -27998,11 +29629,14 @@
       <c r="L543" t="s">
         <v>23</v>
       </c>
-      <c r="M543" t="s">
+      <c r="M543">
+        <v>0</v>
+      </c>
+      <c r="N543" t="s">
         <v>1754</v>
       </c>
     </row>
-    <row r="544" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A544" t="s">
         <v>467</v>
       </c>
@@ -28039,11 +29673,14 @@
       <c r="L544" t="s">
         <v>31</v>
       </c>
-      <c r="M544" t="s">
+      <c r="M544">
+        <v>0</v>
+      </c>
+      <c r="N544" t="s">
         <v>1757</v>
       </c>
     </row>
-    <row r="545" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A545" t="s">
         <v>112</v>
       </c>
@@ -28080,11 +29717,14 @@
       <c r="L545" t="s">
         <v>31</v>
       </c>
-      <c r="M545" t="s">
+      <c r="M545">
+        <v>1</v>
+      </c>
+      <c r="N545" t="s">
         <v>1759</v>
       </c>
     </row>
-    <row r="546" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A546" t="s">
         <v>33</v>
       </c>
@@ -28121,11 +29761,14 @@
       <c r="L546" t="s">
         <v>31</v>
       </c>
-      <c r="M546" t="s">
+      <c r="M546">
+        <v>0</v>
+      </c>
+      <c r="N546" t="s">
         <v>1761</v>
       </c>
     </row>
-    <row r="547" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A547" t="s">
         <v>112</v>
       </c>
@@ -28162,11 +29805,14 @@
       <c r="L547" t="s">
         <v>31</v>
       </c>
-      <c r="M547" t="s">
+      <c r="M547">
+        <v>0</v>
+      </c>
+      <c r="N547" t="s">
         <v>1763</v>
       </c>
     </row>
-    <row r="548" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A548" t="s">
         <v>63</v>
       </c>
@@ -28203,11 +29849,14 @@
       <c r="L548" t="s">
         <v>31</v>
       </c>
-      <c r="M548" t="s">
+      <c r="M548">
+        <v>0</v>
+      </c>
+      <c r="N548" t="s">
         <v>1765</v>
       </c>
     </row>
-    <row r="549" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A549" t="s">
         <v>1766</v>
       </c>
@@ -28244,11 +29893,14 @@
       <c r="L549" t="s">
         <v>31</v>
       </c>
-      <c r="M549" t="s">
+      <c r="M549">
+        <v>0</v>
+      </c>
+      <c r="N549" t="s">
         <v>1769</v>
       </c>
     </row>
-    <row r="550" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A550" t="s">
         <v>33</v>
       </c>
@@ -28285,11 +29937,14 @@
       <c r="L550" t="s">
         <v>31</v>
       </c>
-      <c r="M550" t="s">
+      <c r="M550">
+        <v>0</v>
+      </c>
+      <c r="N550" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="551" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A551" t="s">
         <v>463</v>
       </c>
@@ -28326,11 +29981,14 @@
       <c r="L551" t="s">
         <v>31</v>
       </c>
-      <c r="M551" t="s">
+      <c r="M551">
+        <v>1</v>
+      </c>
+      <c r="N551" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="552" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A552" t="s">
         <v>585</v>
       </c>
@@ -28367,11 +30025,14 @@
       <c r="L552" t="s">
         <v>31</v>
       </c>
-      <c r="M552" t="s">
+      <c r="M552">
+        <v>0</v>
+      </c>
+      <c r="N552" t="s">
         <v>1777</v>
       </c>
     </row>
-    <row r="553" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A553" t="s">
         <v>585</v>
       </c>
@@ -28408,11 +30069,14 @@
       <c r="L553" t="s">
         <v>31</v>
       </c>
-      <c r="M553" t="s">
+      <c r="M553">
+        <v>0</v>
+      </c>
+      <c r="N553" t="s">
         <v>1780</v>
       </c>
     </row>
-    <row r="554" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A554" t="s">
         <v>63</v>
       </c>
@@ -28449,11 +30113,14 @@
       <c r="L554" t="s">
         <v>23</v>
       </c>
-      <c r="M554" t="s">
+      <c r="M554">
+        <v>0</v>
+      </c>
+      <c r="N554" t="s">
         <v>1781</v>
       </c>
     </row>
-    <row r="555" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A555" t="s">
         <v>63</v>
       </c>
@@ -28490,11 +30157,14 @@
       <c r="L555" t="s">
         <v>31</v>
       </c>
-      <c r="M555" t="s">
+      <c r="M555">
+        <v>0</v>
+      </c>
+      <c r="N555" t="s">
         <v>1784</v>
       </c>
     </row>
-    <row r="556" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A556" t="s">
         <v>63</v>
       </c>
@@ -28531,11 +30201,14 @@
       <c r="L556" t="s">
         <v>31</v>
       </c>
-      <c r="M556" t="s">
+      <c r="M556">
+        <v>0</v>
+      </c>
+      <c r="N556" t="s">
         <v>1787</v>
       </c>
     </row>
-    <row r="557" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A557" t="s">
         <v>63</v>
       </c>
@@ -28572,14 +30245,17 @@
       <c r="L557" t="s">
         <v>31</v>
       </c>
-      <c r="M557" t="s">
+      <c r="M557">
+        <v>0</v>
+      </c>
+      <c r="N557" t="s">
         <v>1788</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:M557" numberStoredAsText="1"/>
+    <ignoredError sqref="N1:N557 A1:L557" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>